--- a/Data/CE_non_english_data_clean.xlsx
+++ b/Data/CE_non_english_data_clean.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/achristi_ic_ac_uk/Documents/Cambridge/Anindita_summer_project/Revised draft/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/achristi_ic_ac_uk/Documents/Documents/threats_CE_analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D04FF50B-D259-4F9C-AA22-5F20D7A7A594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A3815F5-51B6-4E82-9F83-2397A6A9A83C}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{D04FF50B-D259-4F9C-AA22-5F20D7A7A594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60EDE241-E7E7-429D-81CA-75F55F397A92}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{82049714-CAA3-4B30-BB09-E99A40EA3DEC}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$280</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$282</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="311">
   <si>
     <t>PaperID</t>
   </si>
@@ -74,9 +74,6 @@
     <t>France</t>
   </si>
   <si>
-    <t xml:space="preserve">Agricultural &amp; aquaculture </t>
-  </si>
-  <si>
     <t>ARB3</t>
   </si>
   <si>
@@ -965,34 +962,16 @@
     <t xml:space="preserve">Invasive non-native species </t>
   </si>
   <si>
-    <t>Peat harvesting</t>
-  </si>
-  <si>
     <t>Harvest aquatic resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Forest management </t>
-  </si>
-  <si>
     <t xml:space="preserve">Problematic native species </t>
   </si>
   <si>
-    <t>Silviculture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change in forest structure </t>
-  </si>
-  <si>
-    <t>Restoration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest management, reforestation </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ectoparasites </t>
   </si>
   <si>
-    <t xml:space="preserve">Small fragmented forest patches </t>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -1008,18 +987,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1034,12 +1007,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,6 +1027,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1374,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C7AA4A-A3C9-4988-828A-E4BE3466DD14}">
-  <dimension ref="A1:H280"/>
+  <dimension ref="A1:H282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="89" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:XFD102"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1409,15 +1385,15 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1429,21 +1405,21 @@
         <v>1.6596249999999999</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>28.033887</v>
@@ -1452,21 +1428,21 @@
         <v>1.6596249999999999</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>28.033887</v>
@@ -1475,18 +1451,21 @@
         <v>1.6596249999999999</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>162</v>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -1498,84 +1477,93 @@
         <v>1.6596249999999999</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>162</v>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>28.033887</v>
+      </c>
+      <c r="E6">
+        <v>1.6596249999999999</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>34.802076</v>
-      </c>
-      <c r="E6">
-        <v>38.996814000000001</v>
-      </c>
-      <c r="F6" t="s">
-        <v>302</v>
-      </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>48.100305560000002</v>
+        <v>28.033887</v>
       </c>
       <c r="E7">
-        <v>4.0510833330000002</v>
+        <v>1.6596249999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
-        <v>47.033333329999998</v>
+        <v>34.802076</v>
       </c>
       <c r="E8">
-        <v>6.6666666999999999E-2</v>
+        <v>38.996814000000001</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1584,21 +1572,21 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>50.018944439999999</v>
+        <v>48.100305560000002</v>
       </c>
       <c r="E9">
-        <v>1.1519722219999999</v>
+        <v>4.0510833330000002</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1607,21 +1595,21 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>46.1</v>
+        <v>47.033333329999998</v>
       </c>
       <c r="E10">
-        <v>2.75</v>
+        <v>6.6666666999999999E-2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1630,24 +1618,21 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>46.1</v>
+        <v>50.018944439999999</v>
       </c>
       <c r="E11">
-        <v>2.75</v>
+        <v>1.1519722219999999</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" t="s">
-        <v>305</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1656,21 +1641,21 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <v>47.068990739999997</v>
+        <v>46.1</v>
       </c>
       <c r="E12">
-        <v>3.7404814810000002</v>
+        <v>2.75</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1679,21 +1664,24 @@
         <v>9</v>
       </c>
       <c r="D13">
-        <v>46.156427999999998</v>
+        <v>46.1</v>
       </c>
       <c r="E13">
-        <v>2.2320799999999998</v>
+        <v>2.75</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H13" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1702,979 +1690,982 @@
         <v>9</v>
       </c>
       <c r="D14">
-        <v>49.101277779999997</v>
+        <v>47.068990739999997</v>
       </c>
       <c r="E14">
-        <v>5.0185555559999999</v>
+        <v>3.7404814810000002</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15">
-        <v>50.085027779999997</v>
+        <v>46.156427999999998</v>
       </c>
       <c r="E15">
-        <v>1.085611111</v>
+        <v>2.2320799999999998</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16">
-        <v>47.078122219999997</v>
+        <v>49.101277779999997</v>
       </c>
       <c r="E16">
-        <v>4.2650388890000004</v>
+        <v>5.0185555559999999</v>
       </c>
       <c r="F16" t="s">
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17">
-        <v>47.078122219999997</v>
+        <v>50.085027779999997</v>
       </c>
       <c r="E17">
-        <v>4.2650388890000004</v>
+        <v>1.085611111</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18">
-        <v>50.025711000000001</v>
+        <v>47.078122219999997</v>
       </c>
       <c r="E18">
-        <v>5.3739299999999997</v>
+        <v>4.2650388890000004</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19">
-        <v>50.085027779999997</v>
+        <v>47.078122219999997</v>
       </c>
       <c r="E19">
-        <v>1.085611111</v>
+        <v>4.2650388890000004</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>46.05</v>
+        <v>50.025711000000001</v>
       </c>
       <c r="E20">
-        <v>2.6666666669999999</v>
+        <v>5.3739299999999997</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
-      </c>
-      <c r="H20" t="s">
-        <v>305</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>195</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" t="s">
-        <v>196</v>
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>50.085027779999997</v>
+      </c>
+      <c r="E21">
+        <v>1.085611111</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22" t="s">
-        <v>196</v>
+        <v>163</v>
+      </c>
+      <c r="D22">
+        <v>46.05</v>
+      </c>
+      <c r="E22">
+        <v>2.6666666669999999</v>
       </c>
       <c r="F22" t="s">
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>197</v>
+        <v>161</v>
+      </c>
+      <c r="H22" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
       </c>
       <c r="G23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>49.050249999999998</v>
-      </c>
-      <c r="E24">
-        <v>1.3333329999999999E-3</v>
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" t="s">
+        <v>195</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25">
-        <v>52.100972220000003</v>
-      </c>
-      <c r="E25">
-        <v>9.0858611109999998</v>
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" t="s">
+        <v>195</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26">
-        <v>54.064897999999999</v>
+        <v>49.050249999999998</v>
       </c>
       <c r="E26">
-        <v>10.2749115</v>
+        <v>1.3333329999999999E-3</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>52.100972220000003</v>
+      </c>
+      <c r="E27">
+        <v>9.0858611109999998</v>
+      </c>
+      <c r="F27" t="s">
         <v>31</v>
       </c>
-      <c r="D27">
-        <v>20.06694444</v>
-      </c>
-      <c r="E27">
-        <v>43.002444439999998</v>
-      </c>
-      <c r="F27" t="s">
-        <v>237</v>
-      </c>
       <c r="G27" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>54.064897999999999</v>
+      </c>
+      <c r="E28">
+        <v>10.2749115</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
         <v>30</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>51.984113669999999</v>
-      </c>
-      <c r="E28">
-        <v>7.2166806670000003</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>165</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
       <c r="D29">
-        <v>49.9</v>
+        <v>20.06694444</v>
       </c>
       <c r="E29">
-        <v>9.3833330000000004</v>
+        <v>43.002444439999998</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>236</v>
       </c>
       <c r="G29" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>51.150812999999999</v>
+        <v>51.984113669999999</v>
       </c>
       <c r="E30">
-        <v>11.864236999999999</v>
+        <v>7.2166806670000003</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>52.506743</v>
+        <v>49.9</v>
       </c>
       <c r="E31">
-        <v>13.844607</v>
+        <v>9.3833330000000004</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>255</v>
+        <v>161</v>
+      </c>
+      <c r="H31" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>51.150812999999999</v>
+      </c>
+      <c r="E32">
+        <v>11.864236999999999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>52.506743</v>
+      </c>
+      <c r="E33">
+        <v>13.844607</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>53.378230000000002</v>
+      </c>
+      <c r="E34">
+        <v>13.840477999999999</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>257</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>53.020659999999999</v>
+      </c>
+      <c r="E35">
+        <v>13.785598999999999</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
         <v>30</v>
       </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32">
-        <v>53.378230000000002</v>
-      </c>
-      <c r="E32">
-        <v>13.840477999999999</v>
-      </c>
-      <c r="F32" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>258</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D36">
+        <v>46.904167000000001</v>
+      </c>
+      <c r="E36">
+        <v>7.516667</v>
+      </c>
+      <c r="F36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
         <v>30</v>
       </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33">
-        <v>53.020659999999999</v>
-      </c>
-      <c r="E33">
-        <v>13.785598999999999</v>
-      </c>
-      <c r="F33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="D37">
+        <v>51.961604000000001</v>
+      </c>
+      <c r="E37">
+        <v>7.9725489999999999</v>
+      </c>
+      <c r="F37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38">
+        <v>51.173496</v>
+      </c>
+      <c r="E38">
+        <v>14.126531</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>45.13436111</v>
+      </c>
+      <c r="E39">
+        <v>14.01752778</v>
+      </c>
+      <c r="F39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" t="s">
+        <v>161</v>
+      </c>
+      <c r="H39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>51.134388889999997</v>
+      </c>
+      <c r="E40">
+        <v>7.0859166670000002</v>
+      </c>
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41">
+        <v>47.085749999999997</v>
+      </c>
+      <c r="E41">
+        <v>8.5854166670000005</v>
+      </c>
+      <c r="F41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>48.760896000000002</v>
+      </c>
+      <c r="E42">
+        <v>11.137371999999999</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>50.910606000000001</v>
+      </c>
+      <c r="E43">
+        <v>6.585521</v>
+      </c>
+      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>239</v>
       </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>48.744200999999997</v>
+      </c>
+      <c r="E44">
+        <v>11.273702999999999</v>
+      </c>
+      <c r="F44" t="s">
         <v>31</v>
       </c>
-      <c r="D34">
-        <v>46.904167000000001</v>
-      </c>
-      <c r="E34">
-        <v>7.516667</v>
-      </c>
-      <c r="F34" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="G44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>239</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>48.744200999999997</v>
+      </c>
+      <c r="E45">
+        <v>11.273702999999999</v>
+      </c>
+      <c r="F45" t="s">
         <v>31</v>
       </c>
-      <c r="D35">
-        <v>51.961604000000001</v>
-      </c>
-      <c r="E35">
-        <v>7.9725489999999999</v>
-      </c>
-      <c r="F35" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>277</v>
-      </c>
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36">
-        <v>51.173496</v>
-      </c>
-      <c r="E36">
-        <v>14.126531</v>
-      </c>
-      <c r="F36" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37">
-        <v>45.13436111</v>
-      </c>
-      <c r="E37">
-        <v>14.01752778</v>
-      </c>
-      <c r="F37" t="s">
-        <v>167</v>
-      </c>
-      <c r="G37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>278</v>
-      </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38">
-        <v>51.134388889999997</v>
-      </c>
-      <c r="E38">
-        <v>7.0859166670000002</v>
-      </c>
-      <c r="F38" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>205</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="G45" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>240</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>49.054403999999998</v>
+      </c>
+      <c r="E46">
+        <v>8.3283900000000006</v>
+      </c>
+      <c r="F46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>37</v>
       </c>
-      <c r="C39" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39">
-        <v>47.085749999999997</v>
-      </c>
-      <c r="E39">
-        <v>8.5854166670000005</v>
-      </c>
-      <c r="F39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>199</v>
-      </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40">
-        <v>48.760896000000002</v>
-      </c>
-      <c r="E40">
-        <v>11.137371999999999</v>
-      </c>
-      <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41">
-        <v>50.910606000000001</v>
-      </c>
-      <c r="E41">
-        <v>6.585521</v>
-      </c>
-      <c r="F41" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42">
-        <v>48.744200999999997</v>
-      </c>
-      <c r="E42">
-        <v>11.273702999999999</v>
-      </c>
-      <c r="F42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>240</v>
-      </c>
-      <c r="B43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43">
-        <v>48.744200999999997</v>
-      </c>
-      <c r="E43">
-        <v>11.273702999999999</v>
-      </c>
-      <c r="F43" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>48.959657</v>
+      </c>
+      <c r="E47">
+        <v>13.394748</v>
+      </c>
+      <c r="F47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>241</v>
       </c>
-      <c r="B44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44">
-        <v>49.054403999999998</v>
-      </c>
-      <c r="E44">
-        <v>8.3283900000000006</v>
-      </c>
-      <c r="F44" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45">
-        <v>48.959657</v>
-      </c>
-      <c r="E45">
-        <v>13.394748</v>
-      </c>
-      <c r="F45" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>242</v>
-      </c>
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46">
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48">
         <v>50.227406000000002</v>
       </c>
-      <c r="E46">
+      <c r="E48">
         <v>11.315987</v>
       </c>
-      <c r="F46" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47">
-        <v>47.78284</v>
-      </c>
-      <c r="E47">
-        <v>7.4438529999999998</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>279</v>
-      </c>
-      <c r="B48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48">
-        <v>47.78284</v>
-      </c>
-      <c r="E48">
-        <v>7.4438529999999998</v>
-      </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49" t="s">
         <v>9</v>
       </c>
       <c r="D49">
-        <v>46.708478999999997</v>
+        <v>47.78284</v>
       </c>
       <c r="E49">
-        <v>8.2998729999999998</v>
+        <v>7.4438529999999998</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G49" t="s">
-        <v>162</v>
-      </c>
-      <c r="H49" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
       </c>
       <c r="D50">
-        <v>47.399197999999998</v>
+        <v>47.78284</v>
       </c>
       <c r="E50">
-        <v>8.5512119999999996</v>
+        <v>7.4438529999999998</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
         <v>9</v>
       </c>
       <c r="D51">
-        <v>47.399197999999998</v>
+        <v>46.708478999999997</v>
       </c>
       <c r="E51">
-        <v>8.5512119999999996</v>
+        <v>8.2998729999999998</v>
       </c>
       <c r="F51" t="s">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>238</v>
+        <v>161</v>
+      </c>
+      <c r="H51" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>242</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>47.399197999999998</v>
+      </c>
+      <c r="E52">
+        <v>8.5512119999999996</v>
+      </c>
+      <c r="F52" t="s">
         <v>39</v>
       </c>
-      <c r="B52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52">
-        <v>47.166666999999997</v>
-      </c>
-      <c r="E52">
-        <v>8.0333330000000007</v>
-      </c>
-      <c r="F52" t="s">
-        <v>40</v>
-      </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
       <c r="D53">
-        <v>47.359664000000002</v>
+        <v>47.399197999999998</v>
       </c>
       <c r="E53">
-        <v>8.6695220000000006</v>
+        <v>8.5512119999999996</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="G53" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D54">
-        <v>47.172553999999998</v>
+        <v>47.166666999999997</v>
       </c>
       <c r="E54">
-        <v>8.0182029999999997</v>
+        <v>8.0333330000000007</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
       </c>
       <c r="D55">
-        <v>47.172553999999998</v>
+        <v>47.359664000000002</v>
       </c>
       <c r="E55">
-        <v>8.0182029999999997</v>
+        <v>8.6695220000000006</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" t="s">
         <v>41</v>
-      </c>
-      <c r="B56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" t="s">
-        <v>31</v>
       </c>
       <c r="D56">
         <v>47.172553999999998</v>
@@ -2683,182 +2674,182 @@
         <v>8.0182029999999997</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D57">
-        <v>49.652594999999998</v>
+        <v>47.172553999999998</v>
       </c>
       <c r="E57">
-        <v>6.0316049999999999</v>
+        <v>8.0182029999999997</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
         <v>30</v>
       </c>
-      <c r="C58" t="s">
-        <v>31</v>
-      </c>
       <c r="D58">
-        <v>53.101166669999998</v>
+        <v>47.172553999999998</v>
       </c>
       <c r="E58">
-        <v>9.0672222219999998</v>
+        <v>8.0182029999999997</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <v>49.652594999999998</v>
+      </c>
+      <c r="E59">
+        <v>6.0316049999999999</v>
+      </c>
+      <c r="F59" t="s">
         <v>45</v>
       </c>
-      <c r="B59" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59">
-        <v>49.786895000000001</v>
-      </c>
-      <c r="E59">
-        <v>6.1179360000000003</v>
-      </c>
-      <c r="F59" t="s">
-        <v>46</v>
-      </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>281</v>
+        <v>43</v>
       </c>
       <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
         <v>30</v>
       </c>
-      <c r="C60" t="s">
-        <v>16</v>
-      </c>
       <c r="D60">
-        <v>49.775956999999998</v>
+        <v>53.101166669999998</v>
       </c>
       <c r="E60">
-        <v>6.1044580000000002</v>
+        <v>9.0672222219999998</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" t="s">
         <v>30</v>
       </c>
-      <c r="C61" t="s">
-        <v>16</v>
-      </c>
       <c r="D61">
-        <v>49.775956999999998</v>
+        <v>49.786895000000001</v>
       </c>
       <c r="E61">
-        <v>6.1044580000000002</v>
+        <v>6.1179360000000003</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>53.022157</v>
+        <v>49.775956999999998</v>
       </c>
       <c r="E62">
-        <v>13.784162999999999</v>
+        <v>6.1044580000000002</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>142</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>53.022157</v>
+        <v>49.775956999999998</v>
       </c>
       <c r="E63">
-        <v>13.784162999999999</v>
+        <v>6.1044580000000002</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G63" t="s">
-        <v>142</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D64">
         <v>53.022157</v>
@@ -2867,2697 +2858,2697 @@
         <v>13.784162999999999</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D65">
-        <v>51.571268000000003</v>
+        <v>53.022157</v>
       </c>
       <c r="E65">
-        <v>12.751462999999999</v>
+        <v>13.784162999999999</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D66">
-        <v>51.571268000000003</v>
+        <v>53.022157</v>
       </c>
       <c r="E66">
-        <v>12.751462999999999</v>
+        <v>13.784162999999999</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D67">
-        <v>52.670985000000002</v>
+        <v>51.571268000000003</v>
       </c>
       <c r="E67">
-        <v>7.4331240000000003</v>
+        <v>12.751462999999999</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D68">
-        <v>52.670985000000002</v>
+        <v>51.571268000000003</v>
       </c>
       <c r="E68">
-        <v>7.4331240000000003</v>
+        <v>12.751462999999999</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D69">
-        <v>52.468946000000003</v>
+        <v>52.670985000000002</v>
       </c>
       <c r="E69">
-        <v>8.3236530000000002</v>
+        <v>7.4331240000000003</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B70" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70">
+        <v>52.670985000000002</v>
+      </c>
+      <c r="E70">
+        <v>7.4331240000000003</v>
+      </c>
+      <c r="F70" t="s">
         <v>31</v>
       </c>
-      <c r="D70">
-        <v>51.085250000000002</v>
-      </c>
-      <c r="E70">
-        <v>7.1358611109999996</v>
-      </c>
-      <c r="F70" t="s">
-        <v>32</v>
-      </c>
       <c r="G70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
         <v>9</v>
       </c>
       <c r="D71">
-        <v>51.775035000000003</v>
+        <v>52.468946000000003</v>
       </c>
       <c r="E71">
-        <v>12.362785000000001</v>
+        <v>8.3236530000000002</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>217</v>
-      </c>
-      <c r="H71" t="s">
-        <v>307</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D72">
-        <v>53.034928000000001</v>
+        <v>51.085250000000002</v>
       </c>
       <c r="E72">
-        <v>14.27472</v>
+        <v>7.1358611109999996</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
       </c>
       <c r="D73">
-        <v>53.034928000000001</v>
+        <v>51.775035000000003</v>
       </c>
       <c r="E73">
-        <v>14.27472</v>
+        <v>12.362785000000001</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>206</v>
+        <v>216</v>
+      </c>
+      <c r="H73" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>282</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
       </c>
       <c r="D74">
-        <v>54.277194999999999</v>
+        <v>53.034928000000001</v>
       </c>
       <c r="E74">
-        <v>10.084002</v>
+        <v>14.27472</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>253</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>53.034928000000001</v>
+      </c>
+      <c r="E75">
+        <v>14.27472</v>
+      </c>
+      <c r="F75" t="s">
         <v>31</v>
       </c>
-      <c r="D75">
-        <v>51.123274000000002</v>
-      </c>
-      <c r="E75">
-        <v>10.481557</v>
-      </c>
-      <c r="F75" t="s">
-        <v>32</v>
-      </c>
       <c r="G75" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>54.277194999999999</v>
+      </c>
+      <c r="E76">
+        <v>10.084002</v>
+      </c>
+      <c r="F76" t="s">
         <v>31</v>
       </c>
-      <c r="D76">
-        <v>52.018194440000002</v>
-      </c>
-      <c r="E76">
-        <v>13.068</v>
-      </c>
-      <c r="F76" t="s">
-        <v>32</v>
-      </c>
       <c r="G76" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="B77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77">
+        <v>51.123274000000002</v>
+      </c>
+      <c r="E77">
+        <v>10.481557</v>
+      </c>
+      <c r="F77" t="s">
         <v>31</v>
       </c>
-      <c r="D77">
-        <v>49.018083330000003</v>
-      </c>
-      <c r="E77">
-        <v>8.1516111109999994</v>
-      </c>
-      <c r="F77" t="s">
-        <v>32</v>
-      </c>
       <c r="G77" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78">
+        <v>52.018194440000002</v>
+      </c>
+      <c r="E78">
+        <v>13.068</v>
+      </c>
+      <c r="F78" t="s">
         <v>31</v>
       </c>
-      <c r="D78">
-        <v>47.10125</v>
-      </c>
-      <c r="E78">
-        <v>15.05177778</v>
-      </c>
-      <c r="F78" t="s">
-        <v>285</v>
-      </c>
       <c r="G78" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" t="s">
         <v>30</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79">
+        <v>49.018083330000003</v>
+      </c>
+      <c r="E79">
+        <v>8.1516111109999994</v>
+      </c>
+      <c r="F79" t="s">
         <v>31</v>
       </c>
-      <c r="D79">
-        <v>52.018194440000002</v>
-      </c>
-      <c r="E79">
-        <v>13.068</v>
-      </c>
-      <c r="F79" t="s">
-        <v>32</v>
-      </c>
       <c r="G79" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" t="s">
         <v>30</v>
       </c>
-      <c r="C80" t="s">
-        <v>31</v>
-      </c>
       <c r="D80">
-        <v>52.018194440000002</v>
+        <v>47.10125</v>
       </c>
       <c r="E80">
-        <v>13.068</v>
+        <v>15.05177778</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="G80" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81">
+        <v>52.018194440000002</v>
+      </c>
+      <c r="E81">
+        <v>13.068</v>
+      </c>
+      <c r="F81" t="s">
         <v>31</v>
       </c>
-      <c r="D81">
-        <v>46.119166669999998</v>
-      </c>
-      <c r="E81">
-        <v>13.15105556</v>
-      </c>
-      <c r="F81" t="s">
-        <v>285</v>
-      </c>
       <c r="G81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
         <v>30</v>
       </c>
-      <c r="C82" t="s">
-        <v>9</v>
-      </c>
       <c r="D82">
-        <v>52.05</v>
+        <v>52.018194440000002</v>
       </c>
       <c r="E82">
-        <v>10.135222219999999</v>
+        <v>13.068</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>162</v>
-      </c>
-      <c r="H82" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>286</v>
       </c>
       <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" t="s">
         <v>30</v>
       </c>
-      <c r="C83" t="s">
-        <v>9</v>
-      </c>
       <c r="D83">
-        <v>48.135944440000003</v>
+        <v>46.119166669999998</v>
       </c>
       <c r="E83">
-        <v>10.03522222</v>
+        <v>13.15105556</v>
       </c>
       <c r="F83" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="G83" t="s">
-        <v>162</v>
-      </c>
-      <c r="H83" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C84" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D84">
-        <v>50.102722219999997</v>
+        <v>52.05</v>
       </c>
       <c r="E84">
-        <v>7.0188888890000003</v>
+        <v>10.135222219999999</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>142</v>
+        <v>161</v>
+      </c>
+      <c r="H84" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D85">
-        <v>54.01606967</v>
+        <v>48.135944440000003</v>
       </c>
       <c r="E85">
-        <v>12.20551333</v>
+        <v>10.03522222</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H85" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D86">
-        <v>52.712434999999999</v>
+        <v>50.102722219999997</v>
       </c>
       <c r="E86">
-        <v>9.8108000000000004</v>
+        <v>7.0188888890000003</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D87">
-        <v>52.712434999999999</v>
+        <v>54.01606967</v>
       </c>
       <c r="E87">
-        <v>9.8108000000000004</v>
+        <v>12.20551333</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
       </c>
       <c r="D88">
-        <v>47.922863</v>
+        <v>52.712434999999999</v>
       </c>
       <c r="E88">
-        <v>8.5476589999999995</v>
+        <v>9.8108000000000004</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89">
+        <v>52.712434999999999</v>
+      </c>
+      <c r="E89">
+        <v>9.8108000000000004</v>
+      </c>
+      <c r="F89" t="s">
         <v>31</v>
       </c>
-      <c r="D89">
-        <v>52.643673</v>
-      </c>
-      <c r="E89">
-        <v>10.168987</v>
-      </c>
-      <c r="F89" t="s">
-        <v>32</v>
-      </c>
       <c r="G89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>288</v>
+        <v>145</v>
       </c>
       <c r="B90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s">
         <v>9</v>
       </c>
       <c r="D90">
-        <v>46.317430999999999</v>
+        <v>47.922863</v>
       </c>
       <c r="E90">
-        <v>7.9726090000000003</v>
+        <v>8.5476589999999995</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>289</v>
+        <v>146</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91">
+        <v>52.643673</v>
+      </c>
+      <c r="E91">
+        <v>10.168987</v>
+      </c>
+      <c r="F91" t="s">
         <v>31</v>
       </c>
-      <c r="D91">
-        <v>53.558967000000003</v>
-      </c>
-      <c r="E91">
-        <v>10.456414000000001</v>
-      </c>
-      <c r="F91" t="s">
-        <v>32</v>
-      </c>
       <c r="G91" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>287</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
       </c>
       <c r="D92">
-        <v>51.775423000000004</v>
+        <v>46.317430999999999</v>
       </c>
       <c r="E92">
-        <v>6.3631270000000004</v>
+        <v>7.9726090000000003</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>162</v>
-      </c>
-      <c r="H92" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93">
+        <v>53.558967000000003</v>
+      </c>
+      <c r="E93">
+        <v>10.456414000000001</v>
+      </c>
+      <c r="F93" t="s">
         <v>31</v>
       </c>
-      <c r="D93">
-        <v>53.067333329999997</v>
-      </c>
-      <c r="E93">
-        <v>22.035250000000001</v>
-      </c>
-      <c r="F93" t="s">
-        <v>246</v>
-      </c>
       <c r="G93" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C94" t="s">
         <v>9</v>
       </c>
       <c r="D94">
-        <v>51.963895999999998</v>
+        <v>51.775423000000004</v>
       </c>
       <c r="E94">
-        <v>7.6152090000000001</v>
+        <v>6.3631270000000004</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>142</v>
+        <v>161</v>
+      </c>
+      <c r="H94" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>244</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D95">
-        <v>50.700018999999998</v>
+        <v>53.067333329999997</v>
       </c>
       <c r="E95">
-        <v>6.7934799999999997</v>
+        <v>22.035250000000001</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>245</v>
       </c>
       <c r="G95" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
       </c>
       <c r="D96">
-        <v>49.365825000000001</v>
+        <v>51.963895999999998</v>
       </c>
       <c r="E96">
-        <v>7.1785389999999998</v>
+        <v>7.6152090000000001</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
       </c>
       <c r="D97">
-        <v>52.603242000000002</v>
+        <v>50.700018999999998</v>
       </c>
       <c r="E97">
-        <v>12.551710999999999</v>
+        <v>6.7934799999999997</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
       </c>
       <c r="D98">
-        <v>51.089278</v>
+        <v>49.365825000000001</v>
       </c>
       <c r="E98">
-        <v>6.9104720000000004</v>
+        <v>7.1785389999999998</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C99" t="s">
         <v>9</v>
       </c>
       <c r="D99">
-        <v>50.152757000000001</v>
+        <v>52.603242000000002</v>
       </c>
       <c r="E99">
-        <v>11.061942</v>
+        <v>12.551710999999999</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>290</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>51.089278</v>
+      </c>
+      <c r="E100">
+        <v>6.9104720000000004</v>
+      </c>
+      <c r="F100" t="s">
         <v>31</v>
       </c>
-      <c r="D100">
-        <v>46.494544439999999</v>
-      </c>
-      <c r="E100">
-        <v>18.29097222</v>
-      </c>
-      <c r="F100" t="s">
-        <v>57</v>
-      </c>
       <c r="G100" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="B101" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
       </c>
       <c r="D101">
-        <v>46.017611109999997</v>
+        <v>50.152757000000001</v>
       </c>
       <c r="E101">
-        <v>17.052013890000001</v>
+        <v>11.061942</v>
       </c>
       <c r="F101" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102">
+        <v>46.494544439999999</v>
+      </c>
+      <c r="E102">
+        <v>18.29097222</v>
+      </c>
+      <c r="F102" t="s">
         <v>56</v>
       </c>
-      <c r="C102" t="s">
-        <v>31</v>
-      </c>
-      <c r="D102">
-        <v>47.019277780000003</v>
-      </c>
-      <c r="E102">
-        <v>19.150027779999999</v>
-      </c>
-      <c r="F102" t="s">
-        <v>57</v>
-      </c>
       <c r="G102" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="B103" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103">
+        <v>46.017611109999997</v>
+      </c>
+      <c r="E103">
+        <v>17.052013890000001</v>
+      </c>
+      <c r="F103" t="s">
         <v>56</v>
       </c>
-      <c r="C103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103">
-        <v>47.100027779999998</v>
-      </c>
-      <c r="E103">
-        <v>21.001194439999999</v>
-      </c>
-      <c r="F103" t="s">
-        <v>57</v>
-      </c>
       <c r="G103" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="B104" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104">
+        <v>47.019277780000003</v>
+      </c>
+      <c r="E104">
+        <v>19.150027779999999</v>
+      </c>
+      <c r="F104" t="s">
         <v>56</v>
       </c>
-      <c r="C104" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104">
-        <v>47.100027779999998</v>
-      </c>
-      <c r="E104">
-        <v>21.001194439999999</v>
-      </c>
-      <c r="F104" t="s">
-        <v>57</v>
-      </c>
       <c r="G104" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="B105" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105">
+        <v>47.100027779999998</v>
+      </c>
+      <c r="E105">
+        <v>21.001194439999999</v>
+      </c>
+      <c r="F105" t="s">
         <v>56</v>
       </c>
-      <c r="C105" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105">
-        <v>47.085333329999997</v>
-      </c>
-      <c r="E105">
-        <v>20.06886111</v>
-      </c>
-      <c r="F105" t="s">
-        <v>57</v>
-      </c>
       <c r="G105" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <v>47.100027779999998</v>
+      </c>
+      <c r="E106">
+        <v>21.001194439999999</v>
+      </c>
+      <c r="F106" t="s">
         <v>56</v>
       </c>
-      <c r="C106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106">
-        <v>47.029224999999997</v>
-      </c>
-      <c r="E106">
-        <v>19.493662</v>
-      </c>
-      <c r="F106" t="s">
-        <v>57</v>
-      </c>
       <c r="G106" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="B107" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107">
+        <v>47.085333329999997</v>
+      </c>
+      <c r="E107">
+        <v>20.06886111</v>
+      </c>
+      <c r="F107" t="s">
         <v>56</v>
       </c>
-      <c r="C107" t="s">
-        <v>16</v>
-      </c>
-      <c r="D107">
-        <v>47.150861110000001</v>
-      </c>
-      <c r="E107">
-        <v>19.084138889999998</v>
-      </c>
-      <c r="F107" t="s">
-        <v>57</v>
-      </c>
       <c r="G107" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B108" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>47.029224999999997</v>
+      </c>
+      <c r="E108">
+        <v>19.493662</v>
+      </c>
+      <c r="F108" t="s">
         <v>56</v>
       </c>
-      <c r="C108" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108">
-        <v>47.150861110000001</v>
-      </c>
-      <c r="E108">
-        <v>19.084138889999998</v>
-      </c>
-      <c r="F108" t="s">
-        <v>57</v>
-      </c>
       <c r="G108" t="s">
-        <v>217</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B109" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109">
+        <v>47.150861110000001</v>
+      </c>
+      <c r="E109">
+        <v>19.084138889999998</v>
+      </c>
+      <c r="F109" t="s">
         <v>56</v>
       </c>
-      <c r="C109" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109">
-        <v>46.801284719999998</v>
-      </c>
-      <c r="E109">
-        <v>18.850972219999999</v>
-      </c>
-      <c r="F109" t="s">
-        <v>57</v>
-      </c>
       <c r="G109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>292</v>
+        <v>59</v>
       </c>
       <c r="B110" t="s">
+        <v>55</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110">
+        <v>47.150861110000001</v>
+      </c>
+      <c r="E110">
+        <v>19.084138889999998</v>
+      </c>
+      <c r="F110" t="s">
         <v>56</v>
       </c>
-      <c r="C110" t="s">
-        <v>31</v>
-      </c>
-      <c r="D110">
-        <v>47.019277780000003</v>
-      </c>
-      <c r="E110">
-        <v>19.150027779999999</v>
-      </c>
-      <c r="F110" t="s">
-        <v>57</v>
-      </c>
       <c r="G110" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B111" t="s">
+        <v>55</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111">
+        <v>46.801284719999998</v>
+      </c>
+      <c r="E111">
+        <v>18.850972219999999</v>
+      </c>
+      <c r="F111" t="s">
         <v>56</v>
       </c>
-      <c r="C111" t="s">
-        <v>16</v>
-      </c>
-      <c r="D111">
-        <v>47.250622219999997</v>
-      </c>
-      <c r="E111">
-        <v>19.150027779999999</v>
-      </c>
-      <c r="F111" t="s">
-        <v>57</v>
-      </c>
       <c r="G111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>291</v>
       </c>
       <c r="B112" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D112">
-        <v>47.250622219999997</v>
+        <v>47.019277780000003</v>
       </c>
       <c r="E112">
         <v>19.150027779999999</v>
       </c>
       <c r="F112" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G112" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>293</v>
+        <v>61</v>
       </c>
       <c r="B113" t="s">
+        <v>55</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113">
+        <v>47.250622219999997</v>
+      </c>
+      <c r="E113">
+        <v>19.150027779999999</v>
+      </c>
+      <c r="F113" t="s">
         <v>56</v>
       </c>
-      <c r="C113" t="s">
-        <v>16</v>
-      </c>
-      <c r="D113">
-        <v>46.000444440000003</v>
-      </c>
-      <c r="E113">
-        <v>18.11905556</v>
-      </c>
-      <c r="F113" t="s">
-        <v>57</v>
-      </c>
       <c r="G113" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B114" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D114">
-        <v>46.093412999999998</v>
+        <v>47.250622219999997</v>
       </c>
       <c r="E114">
-        <v>8.3062140000000007</v>
+        <v>19.150027779999999</v>
       </c>
       <c r="F114" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G114" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>63</v>
+        <v>292</v>
       </c>
       <c r="B115" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D115">
-        <v>46.093412999999998</v>
+        <v>46.000444440000003</v>
       </c>
       <c r="E115">
-        <v>8.3062140000000007</v>
+        <v>18.11905556</v>
       </c>
       <c r="F115" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G115" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="B116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116">
+        <v>46.093412999999998</v>
+      </c>
+      <c r="E116">
+        <v>8.3062140000000007</v>
+      </c>
+      <c r="F116" t="s">
         <v>64</v>
       </c>
-      <c r="C116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116">
-        <v>43.748069000000001</v>
-      </c>
-      <c r="E116">
-        <v>10.276152</v>
-      </c>
-      <c r="F116" t="s">
-        <v>65</v>
-      </c>
       <c r="G116" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="B117" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117">
+        <v>46.093412999999998</v>
+      </c>
+      <c r="E117">
+        <v>8.3062140000000007</v>
+      </c>
+      <c r="F117" t="s">
         <v>64</v>
       </c>
-      <c r="C117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117">
-        <v>42.345278999999998</v>
-      </c>
-      <c r="E117">
-        <v>12.360461000000001</v>
-      </c>
-      <c r="F117" t="s">
-        <v>65</v>
-      </c>
       <c r="G117" t="s">
-        <v>162</v>
-      </c>
-      <c r="H117" t="s">
-        <v>306</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="B118" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118">
+        <v>43.748069000000001</v>
+      </c>
+      <c r="E118">
+        <v>10.276152</v>
+      </c>
+      <c r="F118" t="s">
         <v>64</v>
       </c>
-      <c r="C118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118">
-        <v>42.146746</v>
-      </c>
-      <c r="E118" t="s">
-        <v>67</v>
-      </c>
-      <c r="F118" t="s">
-        <v>65</v>
-      </c>
       <c r="G118" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="B119" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119">
+        <v>42.345278999999998</v>
+      </c>
+      <c r="E119">
+        <v>12.360461000000001</v>
+      </c>
+      <c r="F119" t="s">
         <v>64</v>
       </c>
-      <c r="C119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119">
-        <v>42.146746</v>
-      </c>
-      <c r="E119" t="s">
-        <v>67</v>
-      </c>
-      <c r="F119" t="s">
-        <v>65</v>
-      </c>
       <c r="G119" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H119" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="B120" t="s">
+        <v>63</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120">
+        <v>42.146746</v>
+      </c>
+      <c r="E120" t="s">
+        <v>66</v>
+      </c>
+      <c r="F120" t="s">
         <v>64</v>
       </c>
-      <c r="C120" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120">
-        <v>42.898502000000001</v>
-      </c>
-      <c r="E120">
-        <v>12.497028999999999</v>
-      </c>
-      <c r="F120" t="s">
-        <v>65</v>
-      </c>
       <c r="G120" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="B121" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121">
+        <v>42.146746</v>
+      </c>
+      <c r="E121" t="s">
+        <v>66</v>
+      </c>
+      <c r="F121" t="s">
         <v>64</v>
       </c>
-      <c r="C121" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121">
-        <v>44.257523999999997</v>
-      </c>
-      <c r="E121">
-        <v>11.369208</v>
-      </c>
-      <c r="F121" t="s">
-        <v>65</v>
-      </c>
       <c r="G121" t="s">
-        <v>217</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B122" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122">
+        <v>42.898502000000001</v>
+      </c>
+      <c r="E122">
+        <v>12.497028999999999</v>
+      </c>
+      <c r="F122" t="s">
         <v>64</v>
       </c>
-      <c r="C122" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122">
-        <v>42.143315999999999</v>
-      </c>
-      <c r="E122">
-        <v>12.280817000000001</v>
-      </c>
-      <c r="F122" t="s">
-        <v>65</v>
-      </c>
       <c r="G122" t="s">
-        <v>162</v>
-      </c>
-      <c r="H122" t="s">
-        <v>310</v>
+        <v>196</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="B123" t="s">
+        <v>63</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123">
+        <v>44.257523999999997</v>
+      </c>
+      <c r="E123">
+        <v>11.369208</v>
+      </c>
+      <c r="F123" t="s">
         <v>64</v>
       </c>
-      <c r="C123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123">
-        <v>43.098928000000001</v>
-      </c>
-      <c r="E123">
-        <v>12.408991</v>
-      </c>
-      <c r="F123" t="s">
-        <v>65</v>
-      </c>
       <c r="G123" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124">
+        <v>42.143315999999999</v>
+      </c>
+      <c r="E124">
+        <v>12.280817000000001</v>
+      </c>
+      <c r="F124" t="s">
         <v>64</v>
       </c>
-      <c r="C124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124">
-        <v>43.448315999999998</v>
-      </c>
-      <c r="E124">
-        <v>13.015056</v>
-      </c>
-      <c r="F124" t="s">
-        <v>65</v>
-      </c>
       <c r="G124" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H124" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="B125" t="s">
+        <v>63</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125">
+        <v>43.098928000000001</v>
+      </c>
+      <c r="E125">
+        <v>12.408991</v>
+      </c>
+      <c r="F125" t="s">
         <v>64</v>
       </c>
-      <c r="C125" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125">
-        <v>43.949401000000002</v>
-      </c>
-      <c r="E125">
-        <v>11.175914000000001</v>
-      </c>
-      <c r="F125" t="s">
-        <v>65</v>
-      </c>
       <c r="G125" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="B126" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126">
+        <v>43.448315999999998</v>
+      </c>
+      <c r="E126">
+        <v>13.015056</v>
+      </c>
+      <c r="F126" t="s">
         <v>64</v>
       </c>
-      <c r="C126" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126">
-        <v>46.156852000000001</v>
-      </c>
-      <c r="E126">
-        <v>13.527442000000001</v>
-      </c>
-      <c r="F126" t="s">
-        <v>65</v>
-      </c>
       <c r="G126" t="s">
-        <v>162</v>
-      </c>
-      <c r="H126" t="s">
-        <v>317</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="B127" t="s">
+        <v>63</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127">
+        <v>43.949401000000002</v>
+      </c>
+      <c r="E127">
+        <v>11.175914000000001</v>
+      </c>
+      <c r="F127" t="s">
         <v>64</v>
       </c>
-      <c r="C127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127">
-        <v>43.713802000000001</v>
-      </c>
-      <c r="E127">
-        <v>10.396063</v>
-      </c>
-      <c r="F127" t="s">
-        <v>65</v>
-      </c>
       <c r="G127" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>220</v>
+        <v>173</v>
       </c>
       <c r="B128" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128">
+        <v>46.156852000000001</v>
+      </c>
+      <c r="E128">
+        <v>13.527442000000001</v>
+      </c>
+      <c r="F128" t="s">
         <v>64</v>
       </c>
-      <c r="C128" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128">
-        <v>41.871938999999998</v>
-      </c>
-      <c r="E128">
-        <v>12.567378</v>
-      </c>
-      <c r="F128" t="s">
-        <v>65</v>
-      </c>
       <c r="G128" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="H128" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
       <c r="B129" t="s">
+        <v>63</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129">
+        <v>43.713802000000001</v>
+      </c>
+      <c r="E129">
+        <v>10.396063</v>
+      </c>
+      <c r="F129" t="s">
         <v>64</v>
       </c>
-      <c r="C129" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129">
-        <v>45.717277000000003</v>
-      </c>
-      <c r="E129">
-        <v>9.6673150000000003</v>
-      </c>
-      <c r="F129" t="s">
-        <v>65</v>
-      </c>
       <c r="G129" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="B130" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <v>41.871938999999998</v>
+      </c>
+      <c r="E130">
+        <v>12.567378</v>
+      </c>
+      <c r="F130" t="s">
         <v>64</v>
       </c>
-      <c r="C130" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130">
-        <v>45.314791999999997</v>
-      </c>
-      <c r="E130">
-        <v>9.4991310000000002</v>
-      </c>
-      <c r="F130" t="s">
-        <v>65</v>
-      </c>
       <c r="G130" t="s">
-        <v>15</v>
+        <v>216</v>
+      </c>
+      <c r="H130" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>155</v>
+        <v>259</v>
       </c>
       <c r="B131" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C131" t="s">
         <v>9</v>
       </c>
       <c r="D131">
-        <v>35.909999999999997</v>
+        <v>45.717277000000003</v>
       </c>
       <c r="E131">
-        <v>139.7033333</v>
+        <v>9.6673150000000003</v>
       </c>
       <c r="F131" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G131" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c r="B132" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C132" t="s">
         <v>9</v>
       </c>
       <c r="D132">
-        <v>35.033333329999998</v>
+        <v>45.314791999999997</v>
       </c>
       <c r="E132">
-        <v>137</v>
+        <v>9.4991310000000002</v>
       </c>
       <c r="F132" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G132" t="s">
-        <v>217</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="B133" t="s">
+        <v>72</v>
+      </c>
+      <c r="C133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="E133">
+        <v>139.7033333</v>
+      </c>
+      <c r="F133" t="s">
         <v>73</v>
       </c>
-      <c r="C133" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133">
-        <v>28.033333330000001</v>
-      </c>
-      <c r="E133">
-        <v>129.06666670000001</v>
-      </c>
-      <c r="F133" t="s">
-        <v>74</v>
-      </c>
       <c r="G133" t="s">
-        <v>217</v>
-      </c>
-      <c r="H133" t="s">
-        <v>307</v>
+        <v>141</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B134" t="s">
+        <v>72</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134">
+        <v>35.033333329999998</v>
+      </c>
+      <c r="E134">
+        <v>137</v>
+      </c>
+      <c r="F134" t="s">
         <v>73</v>
       </c>
-      <c r="C134" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134">
-        <v>28.033333330000001</v>
-      </c>
-      <c r="E134">
-        <v>129.06666670000001</v>
-      </c>
-      <c r="F134" t="s">
-        <v>74</v>
-      </c>
       <c r="G134" t="s">
-        <v>217</v>
-      </c>
-      <c r="H134" t="s">
-        <v>307</v>
+        <v>216</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="B135" t="s">
+        <v>72</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135">
+        <v>28.033333330000001</v>
+      </c>
+      <c r="E135">
+        <v>129.06666670000001</v>
+      </c>
+      <c r="F135" t="s">
         <v>73</v>
       </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135">
-        <v>34.049999999999997</v>
-      </c>
-      <c r="E135">
-        <v>135.03333330000001</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G135" t="s">
-        <v>255</v>
+        <v>216</v>
+      </c>
+      <c r="H135" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B136" t="s">
+        <v>72</v>
+      </c>
+      <c r="C136" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136">
+        <v>28.033333330000001</v>
+      </c>
+      <c r="E136">
+        <v>129.06666670000001</v>
+      </c>
+      <c r="F136" t="s">
         <v>73</v>
       </c>
-      <c r="C136" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136">
-        <v>35.083333330000002</v>
-      </c>
-      <c r="E136">
-        <v>139.15</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H136" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
+        <v>260</v>
+      </c>
+      <c r="B137" t="s">
         <v>72</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137">
+        <v>34.049999999999997</v>
+      </c>
+      <c r="E137">
+        <v>135.03333330000001</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C137" t="s">
-        <v>16</v>
-      </c>
-      <c r="D137">
-        <v>34.033333329999998</v>
-      </c>
-      <c r="E137">
-        <v>135.06666670000001</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G137" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
+        <v>222</v>
+      </c>
+      <c r="B138" t="s">
         <v>72</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138">
+        <v>35.083333330000002</v>
+      </c>
+      <c r="E138">
+        <v>139.15</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C138" t="s">
-        <v>16</v>
-      </c>
-      <c r="D138">
-        <v>34.033333329999998</v>
-      </c>
-      <c r="E138">
-        <v>135.06666670000001</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G138" t="s">
-        <v>238</v>
+        <v>216</v>
+      </c>
+      <c r="H138" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>262</v>
+        <v>71</v>
       </c>
       <c r="B139" t="s">
+        <v>72</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139">
+        <v>34.033333329999998</v>
+      </c>
+      <c r="E139">
+        <v>135.06666670000001</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C139" t="s">
-        <v>9</v>
-      </c>
-      <c r="D139">
-        <v>35.049999999999997</v>
-      </c>
-      <c r="E139">
-        <v>139.05000000000001</v>
-      </c>
-      <c r="F139" t="s">
-        <v>74</v>
-      </c>
       <c r="G139" t="s">
-        <v>255</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="B140" t="s">
+        <v>72</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140">
+        <v>34.033333329999998</v>
+      </c>
+      <c r="E140">
+        <v>135.06666670000001</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C140" t="s">
-        <v>42</v>
-      </c>
-      <c r="D140">
-        <v>35.066666669999996</v>
-      </c>
-      <c r="E140">
-        <v>139.03333330000001</v>
-      </c>
-      <c r="F140" t="s">
-        <v>74</v>
-      </c>
       <c r="G140" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="B141" t="s">
+        <v>72</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="E141">
+        <v>139.05000000000001</v>
+      </c>
+      <c r="F141" t="s">
         <v>73</v>
       </c>
-      <c r="C141" t="s">
-        <v>31</v>
-      </c>
-      <c r="D141">
-        <v>35.016666669999999</v>
-      </c>
-      <c r="E141">
-        <v>139.15</v>
-      </c>
-      <c r="F141" t="s">
-        <v>74</v>
-      </c>
       <c r="G141" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="B142" t="s">
+        <v>72</v>
+      </c>
+      <c r="C142" t="s">
+        <v>41</v>
+      </c>
+      <c r="D142">
+        <v>35.066666669999996</v>
+      </c>
+      <c r="E142">
+        <v>139.03333330000001</v>
+      </c>
+      <c r="F142" t="s">
         <v>73</v>
       </c>
-      <c r="C142" t="s">
-        <v>49</v>
-      </c>
-      <c r="D142">
-        <v>35.016666669999999</v>
-      </c>
-      <c r="E142">
-        <v>140.15</v>
-      </c>
-      <c r="F142" t="s">
-        <v>74</v>
-      </c>
       <c r="G142" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B143" t="s">
+        <v>72</v>
+      </c>
+      <c r="C143" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143">
+        <v>35.016666669999999</v>
+      </c>
+      <c r="E143">
+        <v>139.15</v>
+      </c>
+      <c r="F143" t="s">
         <v>73</v>
       </c>
-      <c r="C143" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143">
-        <v>39.083333330000002</v>
-      </c>
-      <c r="E143">
-        <v>141.08333329999999</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="G143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="B144" t="s">
+        <v>72</v>
+      </c>
+      <c r="C144" t="s">
+        <v>48</v>
+      </c>
+      <c r="D144">
+        <v>35.016666669999999</v>
+      </c>
+      <c r="E144">
+        <v>140.15</v>
+      </c>
+      <c r="F144" t="s">
         <v>73</v>
       </c>
-      <c r="C144" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144">
-        <v>25</v>
-      </c>
-      <c r="E144">
-        <v>55</v>
-      </c>
-      <c r="F144" t="s">
-        <v>76</v>
-      </c>
       <c r="G144" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="B145" t="s">
+        <v>72</v>
+      </c>
+      <c r="C145" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145">
+        <v>39.083333330000002</v>
+      </c>
+      <c r="E145">
+        <v>141.08333329999999</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C145" t="s">
-        <v>16</v>
-      </c>
-      <c r="D145">
-        <v>42.033333329999998</v>
-      </c>
-      <c r="E145">
-        <v>143.15</v>
-      </c>
-      <c r="F145" t="s">
-        <v>74</v>
-      </c>
       <c r="G145" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="B146" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C146" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D146">
-        <v>35.066666669999996</v>
+        <v>25</v>
       </c>
       <c r="E146">
-        <v>139.1333333</v>
+        <v>55</v>
       </c>
       <c r="F146" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G146" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B147" t="s">
+        <v>72</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147">
+        <v>42.033333329999998</v>
+      </c>
+      <c r="E147">
+        <v>143.15</v>
+      </c>
+      <c r="F147" t="s">
         <v>73</v>
       </c>
-      <c r="C147" t="s">
-        <v>16</v>
-      </c>
-      <c r="D147">
-        <v>34.066666669999996</v>
-      </c>
-      <c r="E147">
-        <v>136.06666670000001</v>
-      </c>
-      <c r="F147" t="s">
-        <v>74</v>
-      </c>
       <c r="G147" t="s">
-        <v>217</v>
-      </c>
-      <c r="H147" t="s">
-        <v>311</v>
+        <v>216</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B148" t="s">
+        <v>72</v>
+      </c>
+      <c r="C148" t="s">
+        <v>48</v>
+      </c>
+      <c r="D148">
+        <v>35.066666669999996</v>
+      </c>
+      <c r="E148">
+        <v>139.1333333</v>
+      </c>
+      <c r="F148" t="s">
         <v>73</v>
       </c>
-      <c r="C148" t="s">
-        <v>31</v>
-      </c>
-      <c r="D148">
-        <v>36.083333330000002</v>
-      </c>
-      <c r="E148">
-        <v>140.08333329999999</v>
-      </c>
-      <c r="F148" t="s">
-        <v>74</v>
-      </c>
       <c r="G148" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="B149" t="s">
+        <v>72</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149">
+        <v>34.066666669999996</v>
+      </c>
+      <c r="E149">
+        <v>136.06666670000001</v>
+      </c>
+      <c r="F149" t="s">
         <v>73</v>
       </c>
-      <c r="C149" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149">
-        <v>35.016666669999999</v>
-      </c>
-      <c r="E149">
-        <v>139.15</v>
-      </c>
-      <c r="F149" t="s">
-        <v>74</v>
-      </c>
       <c r="G149" t="s">
-        <v>276</v>
+        <v>216</v>
+      </c>
+      <c r="H149" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="B150" t="s">
+        <v>72</v>
+      </c>
+      <c r="C150" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150">
+        <v>36.083333330000002</v>
+      </c>
+      <c r="E150">
+        <v>140.08333329999999</v>
+      </c>
+      <c r="F150" t="s">
         <v>73</v>
       </c>
-      <c r="C150" t="s">
-        <v>31</v>
-      </c>
-      <c r="D150">
-        <v>38</v>
-      </c>
-      <c r="E150">
-        <v>138.03333330000001</v>
-      </c>
-      <c r="F150" t="s">
-        <v>74</v>
-      </c>
       <c r="G150" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="B151" t="s">
+        <v>72</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151">
+        <v>35.016666669999999</v>
+      </c>
+      <c r="E151">
+        <v>139.15</v>
+      </c>
+      <c r="F151" t="s">
         <v>73</v>
       </c>
-      <c r="C151" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151">
-        <v>35.566666669999996</v>
-      </c>
-      <c r="E151">
-        <v>140.1333333</v>
-      </c>
-      <c r="F151" t="s">
-        <v>74</v>
-      </c>
       <c r="G151" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="B152" t="s">
+        <v>72</v>
+      </c>
+      <c r="C152" t="s">
+        <v>30</v>
+      </c>
+      <c r="D152">
+        <v>38</v>
+      </c>
+      <c r="E152">
+        <v>138.03333330000001</v>
+      </c>
+      <c r="F152" t="s">
         <v>73</v>
       </c>
-      <c r="C152" t="s">
-        <v>31</v>
-      </c>
-      <c r="D152">
-        <v>35.8718</v>
-      </c>
-      <c r="E152">
-        <v>35.8718</v>
-      </c>
-      <c r="F152" t="s">
-        <v>74</v>
-      </c>
       <c r="G152" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="B153" t="s">
+        <v>72</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153">
+        <v>35.566666669999996</v>
+      </c>
+      <c r="E153">
+        <v>140.1333333</v>
+      </c>
+      <c r="F153" t="s">
         <v>73</v>
       </c>
-      <c r="C153" t="s">
-        <v>31</v>
-      </c>
-      <c r="D153">
-        <v>35.8902</v>
-      </c>
-      <c r="E153">
-        <v>136.05289999999999</v>
-      </c>
-      <c r="F153" t="s">
-        <v>74</v>
-      </c>
       <c r="G153" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B154" t="s">
+        <v>72</v>
+      </c>
+      <c r="C154" t="s">
+        <v>30</v>
+      </c>
+      <c r="D154">
+        <v>35.8718</v>
+      </c>
+      <c r="E154">
+        <v>35.8718</v>
+      </c>
+      <c r="F154" t="s">
         <v>73</v>
       </c>
-      <c r="C154" t="s">
-        <v>31</v>
-      </c>
-      <c r="D154">
-        <v>35.550800000000002</v>
-      </c>
-      <c r="E154">
-        <v>134.86080000000001</v>
-      </c>
-      <c r="F154" t="s">
-        <v>74</v>
-      </c>
       <c r="G154" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>263</v>
+        <v>159</v>
       </c>
       <c r="B155" t="s">
+        <v>72</v>
+      </c>
+      <c r="C155" t="s">
+        <v>30</v>
+      </c>
+      <c r="D155">
+        <v>35.8902</v>
+      </c>
+      <c r="E155">
+        <v>136.05289999999999</v>
+      </c>
+      <c r="F155" t="s">
         <v>73</v>
       </c>
-      <c r="C155" t="s">
-        <v>16</v>
-      </c>
-      <c r="D155">
-        <v>34.133333329999999</v>
-      </c>
-      <c r="E155">
-        <v>132.1333333</v>
-      </c>
-      <c r="F155" t="s">
-        <v>74</v>
-      </c>
       <c r="G155" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="B156" t="s">
+        <v>72</v>
+      </c>
+      <c r="C156" t="s">
+        <v>30</v>
+      </c>
+      <c r="D156">
+        <v>35.550800000000002</v>
+      </c>
+      <c r="E156">
+        <v>134.86080000000001</v>
+      </c>
+      <c r="F156" t="s">
         <v>73</v>
       </c>
-      <c r="C156" t="s">
-        <v>16</v>
-      </c>
-      <c r="D156">
-        <v>35.016666669999999</v>
-      </c>
-      <c r="E156">
-        <v>134.1166667</v>
-      </c>
-      <c r="F156" t="s">
-        <v>74</v>
-      </c>
       <c r="G156" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B157" t="s">
+        <v>72</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157">
+        <v>34.133333329999999</v>
+      </c>
+      <c r="E157">
+        <v>132.1333333</v>
+      </c>
+      <c r="F157" t="s">
         <v>73</v>
       </c>
-      <c r="C157" t="s">
-        <v>16</v>
-      </c>
-      <c r="D157">
-        <v>36</v>
-      </c>
-      <c r="E157">
-        <v>138.08333329999999</v>
-      </c>
-      <c r="F157" t="s">
-        <v>74</v>
-      </c>
       <c r="G157" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="B158" t="s">
+        <v>72</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158">
+        <v>35.016666669999999</v>
+      </c>
+      <c r="E158">
+        <v>134.1166667</v>
+      </c>
+      <c r="F158" t="s">
         <v>73</v>
       </c>
-      <c r="C158" t="s">
-        <v>16</v>
-      </c>
-      <c r="D158">
-        <v>43.133333329999999</v>
-      </c>
-      <c r="E158">
-        <v>135.1166667</v>
-      </c>
-      <c r="F158" t="s">
-        <v>74</v>
-      </c>
       <c r="G158" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="B159" t="s">
+        <v>72</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159">
+        <v>36</v>
+      </c>
+      <c r="E159">
+        <v>138.08333329999999</v>
+      </c>
+      <c r="F159" t="s">
         <v>73</v>
       </c>
-      <c r="C159" t="s">
-        <v>16</v>
-      </c>
-      <c r="D159">
-        <v>43.133333329999999</v>
-      </c>
-      <c r="E159">
-        <v>135.1166667</v>
-      </c>
-      <c r="F159" t="s">
-        <v>74</v>
-      </c>
       <c r="G159" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="B160" t="s">
+        <v>72</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160">
+        <v>43.133333329999999</v>
+      </c>
+      <c r="E160">
+        <v>135.1166667</v>
+      </c>
+      <c r="F160" t="s">
         <v>73</v>
       </c>
-      <c r="C160" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160">
-        <v>27.133333329999999</v>
-      </c>
-      <c r="E160">
-        <v>142.06666670000001</v>
-      </c>
-      <c r="F160" t="s">
-        <v>74</v>
-      </c>
       <c r="G160" t="s">
-        <v>217</v>
-      </c>
-      <c r="H160" t="s">
-        <v>307</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B161" t="s">
+        <v>72</v>
+      </c>
+      <c r="C161" t="s">
+        <v>15</v>
+      </c>
+      <c r="D161">
+        <v>43.133333329999999</v>
+      </c>
+      <c r="E161">
+        <v>135.1166667</v>
+      </c>
+      <c r="F161" t="s">
         <v>73</v>
       </c>
-      <c r="C161" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161">
-        <v>36.033333329999998</v>
-      </c>
-      <c r="E161">
-        <v>140.0166667</v>
-      </c>
-      <c r="F161" t="s">
-        <v>74</v>
-      </c>
       <c r="G161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B162" t="s">
+        <v>72</v>
+      </c>
+      <c r="C162" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162">
+        <v>27.133333329999999</v>
+      </c>
+      <c r="E162">
+        <v>142.06666670000001</v>
+      </c>
+      <c r="F162" t="s">
         <v>73</v>
       </c>
-      <c r="C162" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162">
-        <v>38.15</v>
-      </c>
-      <c r="E162">
-        <v>141.1166667</v>
-      </c>
-      <c r="F162" t="s">
-        <v>74</v>
-      </c>
       <c r="G162" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="H162" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="B163" t="s">
+        <v>72</v>
+      </c>
+      <c r="C163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163">
+        <v>36.033333329999998</v>
+      </c>
+      <c r="E163">
+        <v>140.0166667</v>
+      </c>
+      <c r="F163" t="s">
         <v>73</v>
       </c>
-      <c r="C163" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163">
-        <v>36.116666670000001</v>
-      </c>
-      <c r="E163">
-        <v>139.06666670000001</v>
-      </c>
-      <c r="F163" t="s">
-        <v>74</v>
-      </c>
       <c r="G163" t="s">
-        <v>162</v>
-      </c>
-      <c r="H163" t="s">
-        <v>305</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="B164" t="s">
+        <v>72</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164">
+        <v>38.15</v>
+      </c>
+      <c r="E164">
+        <v>141.1166667</v>
+      </c>
+      <c r="F164" t="s">
         <v>73</v>
       </c>
-      <c r="C164" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164">
-        <v>35.1</v>
-      </c>
-      <c r="E164">
-        <v>139.08333329999999</v>
-      </c>
-      <c r="F164" t="s">
-        <v>74</v>
-      </c>
       <c r="G164" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="B165" t="s">
+        <v>72</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165">
+        <v>36.116666670000001</v>
+      </c>
+      <c r="E165">
+        <v>139.06666670000001</v>
+      </c>
+      <c r="F165" t="s">
         <v>73</v>
       </c>
-      <c r="C165" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165">
-        <v>35.116666670000001</v>
-      </c>
-      <c r="E165">
-        <v>139.08333329999999</v>
-      </c>
-      <c r="F165" t="s">
-        <v>74</v>
-      </c>
       <c r="G165" t="s">
-        <v>255</v>
+        <v>161</v>
+      </c>
+      <c r="H165" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B166" t="s">
+        <v>72</v>
+      </c>
+      <c r="C166" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166">
+        <v>35.1</v>
+      </c>
+      <c r="E166">
+        <v>139.08333329999999</v>
+      </c>
+      <c r="F166" t="s">
         <v>73</v>
       </c>
-      <c r="C166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166">
-        <v>33.066666669999996</v>
-      </c>
-      <c r="E166">
-        <v>132.1166667</v>
-      </c>
-      <c r="F166" t="s">
-        <v>74</v>
-      </c>
       <c r="G166" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
       <c r="B167" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C167" t="s">
         <v>9</v>
       </c>
       <c r="D167">
-        <v>37.30753</v>
+        <v>35.116666670000001</v>
       </c>
       <c r="E167">
-        <v>126.67087100000001</v>
+        <v>139.08333329999999</v>
       </c>
       <c r="F167" t="s">
-        <v>303</v>
+        <v>73</v>
       </c>
       <c r="G167" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="B168" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C168" t="s">
         <v>9</v>
       </c>
       <c r="D168">
-        <v>37.30753</v>
+        <v>33.066666669999996</v>
       </c>
       <c r="E168">
-        <v>126.67087100000001</v>
+        <v>132.1166667</v>
       </c>
       <c r="F168" t="s">
-        <v>303</v>
+        <v>73</v>
       </c>
       <c r="G168" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="B169" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D169">
-        <v>36.516069000000002</v>
+        <v>37.30753</v>
       </c>
       <c r="E169">
-        <v>126.65540799999999</v>
+        <v>126.67087100000001</v>
       </c>
       <c r="F169" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G169" t="s">
-        <v>217</v>
-      </c>
-      <c r="H169" t="s">
-        <v>307</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="B170" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C170" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D170">
-        <v>37.282314999999997</v>
+        <v>37.30753</v>
       </c>
       <c r="E170">
-        <v>129.14169100000001</v>
+        <v>126.67087100000001</v>
       </c>
       <c r="F170" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G170" t="s">
-        <v>162</v>
-      </c>
-      <c r="H170" t="s">
-        <v>312</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="B171" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C171" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D171">
-        <v>37.282314999999997</v>
+        <v>36.516069000000002</v>
       </c>
       <c r="E171">
-        <v>129.14169100000001</v>
+        <v>126.65540799999999</v>
       </c>
       <c r="F171" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G171" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="H171" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D172">
-        <v>35.337819000000003</v>
+        <v>37.282314999999997</v>
       </c>
       <c r="E172">
-        <v>127.73021199999999</v>
+        <v>129.14169100000001</v>
       </c>
       <c r="F172" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G172" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H172" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D173">
-        <v>35.337819000000003</v>
+        <v>37.282314999999997</v>
       </c>
       <c r="E173">
-        <v>127.73021199999999</v>
+        <v>129.14169100000001</v>
       </c>
       <c r="F173" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G173" t="s">
-        <v>255</v>
+        <v>161</v>
+      </c>
+      <c r="H173" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D174">
-        <v>35.324247999999997</v>
+        <v>35.337819000000003</v>
       </c>
       <c r="E174">
-        <v>126.282241</v>
+        <v>127.73021199999999</v>
       </c>
       <c r="F174" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G174" t="s">
-        <v>206</v>
+        <v>161</v>
+      </c>
+      <c r="H174" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="B175" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C175" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D175">
-        <v>37.584206000000002</v>
+        <v>35.337819000000003</v>
       </c>
       <c r="E175">
-        <v>127.05575899999999</v>
+        <v>127.73021199999999</v>
       </c>
       <c r="F175" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G175" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="B176" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C176" t="s">
         <v>9</v>
       </c>
       <c r="D176">
-        <v>37.557397000000002</v>
+        <v>35.324247999999997</v>
       </c>
       <c r="E176">
-        <v>126.988168</v>
+        <v>126.282241</v>
       </c>
       <c r="F176" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G176" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B177" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C177" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D177">
-        <v>37.405684000000001</v>
+        <v>37.584206000000002</v>
       </c>
       <c r="E177">
-        <v>127.114856</v>
+        <v>127.05575899999999</v>
       </c>
       <c r="F177" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B178" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C178" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D178">
-        <v>37.405684000000001</v>
+        <v>37.557397000000002</v>
       </c>
       <c r="E178">
-        <v>127.114856</v>
+        <v>126.988168</v>
       </c>
       <c r="F178" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G178" t="s">
-        <v>255</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B179" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D179">
         <v>37.405684000000001</v>
@@ -5566,536 +5557,536 @@
         <v>127.114856</v>
       </c>
       <c r="F179" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G179" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="B180" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D180">
-        <v>37.216667000000001</v>
+        <v>37.405684000000001</v>
       </c>
       <c r="E180">
-        <v>129.26667</v>
+        <v>127.114856</v>
       </c>
       <c r="F180" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G180" t="s">
-        <v>162</v>
-      </c>
-      <c r="H180" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B181" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D181">
-        <v>52.478665999999997</v>
+        <v>37.405684000000001</v>
       </c>
       <c r="E181">
-        <v>15.785446</v>
+        <v>127.114856</v>
       </c>
       <c r="F181" t="s">
-        <v>88</v>
+        <v>302</v>
       </c>
       <c r="G181" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="B182" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C182" t="s">
         <v>9</v>
       </c>
       <c r="D182">
-        <v>53.322526330000002</v>
+        <v>37.216667000000001</v>
       </c>
       <c r="E182">
-        <v>22.05944444</v>
+        <v>129.26667</v>
       </c>
       <c r="F182" t="s">
-        <v>88</v>
+        <v>302</v>
       </c>
       <c r="G182" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H182" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B183" t="s">
+        <v>86</v>
+      </c>
+      <c r="C183" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183">
+        <v>52.478665999999997</v>
+      </c>
+      <c r="E183">
+        <v>15.785446</v>
+      </c>
+      <c r="F183" t="s">
         <v>87</v>
       </c>
-      <c r="C183" t="s">
-        <v>9</v>
-      </c>
-      <c r="D183">
-        <v>52.333373999999999</v>
-      </c>
-      <c r="E183">
-        <v>20.512926</v>
-      </c>
-      <c r="F183" t="s">
-        <v>88</v>
-      </c>
       <c r="G183" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
       <c r="B184" t="s">
+        <v>86</v>
+      </c>
+      <c r="C184" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184">
+        <v>53.322526330000002</v>
+      </c>
+      <c r="E184">
+        <v>22.05944444</v>
+      </c>
+      <c r="F184" t="s">
         <v>87</v>
       </c>
-      <c r="C184" t="s">
-        <v>16</v>
-      </c>
-      <c r="D184">
-        <v>49.794068000000003</v>
-      </c>
-      <c r="E184">
-        <v>19.351452999999999</v>
-      </c>
-      <c r="F184" t="s">
-        <v>88</v>
-      </c>
       <c r="G184" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>297</v>
+        <v>89</v>
       </c>
       <c r="B185" t="s">
+        <v>86</v>
+      </c>
+      <c r="C185" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185">
+        <v>52.333373999999999</v>
+      </c>
+      <c r="E185">
+        <v>20.512926</v>
+      </c>
+      <c r="F185" t="s">
         <v>87</v>
       </c>
-      <c r="C185" t="s">
-        <v>31</v>
-      </c>
-      <c r="D185">
-        <v>53.086441999999998</v>
-      </c>
-      <c r="E185">
-        <v>18.619810999999999</v>
-      </c>
-      <c r="F185" t="s">
-        <v>88</v>
-      </c>
       <c r="G185" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>269</v>
+        <v>211</v>
       </c>
       <c r="B186" t="s">
+        <v>86</v>
+      </c>
+      <c r="C186" t="s">
+        <v>15</v>
+      </c>
+      <c r="D186">
+        <v>49.794068000000003</v>
+      </c>
+      <c r="E186">
+        <v>19.351452999999999</v>
+      </c>
+      <c r="F186" t="s">
         <v>87</v>
       </c>
-      <c r="C186" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186">
-        <v>52.268147999999997</v>
-      </c>
-      <c r="E186">
-        <v>20.988596000000001</v>
-      </c>
-      <c r="F186" t="s">
-        <v>88</v>
-      </c>
       <c r="G186" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>247</v>
+        <v>296</v>
       </c>
       <c r="B187" t="s">
+        <v>86</v>
+      </c>
+      <c r="C187" t="s">
+        <v>30</v>
+      </c>
+      <c r="D187">
+        <v>53.086441999999998</v>
+      </c>
+      <c r="E187">
+        <v>18.619810999999999</v>
+      </c>
+      <c r="F187" t="s">
         <v>87</v>
       </c>
-      <c r="C187" t="s">
-        <v>31</v>
-      </c>
-      <c r="D187">
-        <v>49.790622999999997</v>
-      </c>
-      <c r="E187">
-        <v>20.967587000000002</v>
-      </c>
-      <c r="F187" t="s">
-        <v>88</v>
-      </c>
       <c r="G187" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>91</v>
+        <v>268</v>
       </c>
       <c r="B188" t="s">
+        <v>86</v>
+      </c>
+      <c r="C188" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188">
+        <v>52.268147999999997</v>
+      </c>
+      <c r="E188">
+        <v>20.988596000000001</v>
+      </c>
+      <c r="F188" t="s">
         <v>87</v>
       </c>
-      <c r="C188" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188">
-        <v>53.092027000000002</v>
-      </c>
-      <c r="E188">
-        <v>15.958031999999999</v>
-      </c>
-      <c r="F188" t="s">
-        <v>88</v>
-      </c>
       <c r="G188" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="B189" t="s">
+        <v>86</v>
+      </c>
+      <c r="C189" t="s">
+        <v>30</v>
+      </c>
+      <c r="D189">
+        <v>49.790622999999997</v>
+      </c>
+      <c r="E189">
+        <v>20.967587000000002</v>
+      </c>
+      <c r="F189" t="s">
         <v>87</v>
       </c>
-      <c r="C189" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189">
-        <v>53.092027000000002</v>
-      </c>
-      <c r="E189">
-        <v>15.958031999999999</v>
-      </c>
-      <c r="F189" t="s">
-        <v>88</v>
-      </c>
       <c r="G189" t="s">
-        <v>162</v>
-      </c>
-      <c r="H189" t="s">
-        <v>305</v>
+        <v>237</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>298</v>
+        <v>90</v>
       </c>
       <c r="B190" t="s">
+        <v>86</v>
+      </c>
+      <c r="C190" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190">
+        <v>53.092027000000002</v>
+      </c>
+      <c r="E190">
+        <v>15.958031999999999</v>
+      </c>
+      <c r="F190" t="s">
         <v>87</v>
       </c>
-      <c r="C190" t="s">
-        <v>31</v>
-      </c>
-      <c r="D190">
-        <v>52.330058000000001</v>
-      </c>
-      <c r="E190">
-        <v>15.879046000000001</v>
-      </c>
-      <c r="F190" t="s">
-        <v>88</v>
-      </c>
       <c r="G190" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c r="B191" t="s">
+        <v>86</v>
+      </c>
+      <c r="C191" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191">
+        <v>53.092027000000002</v>
+      </c>
+      <c r="E191">
+        <v>15.958031999999999</v>
+      </c>
+      <c r="F191" t="s">
         <v>87</v>
       </c>
-      <c r="C191" t="s">
-        <v>31</v>
-      </c>
-      <c r="D191">
-        <v>51.648550999999998</v>
-      </c>
-      <c r="E191">
-        <v>17.748352000000001</v>
-      </c>
-      <c r="F191" t="s">
-        <v>88</v>
-      </c>
       <c r="G191" t="s">
-        <v>276</v>
+        <v>161</v>
+      </c>
+      <c r="H191" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="B192" t="s">
+        <v>86</v>
+      </c>
+      <c r="C192" t="s">
+        <v>30</v>
+      </c>
+      <c r="D192">
+        <v>52.330058000000001</v>
+      </c>
+      <c r="E192">
+        <v>15.879046000000001</v>
+      </c>
+      <c r="F192" t="s">
         <v>87</v>
       </c>
-      <c r="C192" t="s">
-        <v>16</v>
-      </c>
-      <c r="D192">
-        <v>51.409557999999997</v>
-      </c>
-      <c r="E192">
-        <v>17.283124999999998</v>
-      </c>
-      <c r="F192" t="s">
-        <v>88</v>
-      </c>
       <c r="G192" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>92</v>
+        <v>298</v>
       </c>
       <c r="B193" t="s">
+        <v>86</v>
+      </c>
+      <c r="C193" t="s">
+        <v>30</v>
+      </c>
+      <c r="D193">
+        <v>51.648550999999998</v>
+      </c>
+      <c r="E193">
+        <v>17.748352000000001</v>
+      </c>
+      <c r="F193" t="s">
         <v>87</v>
       </c>
-      <c r="C193" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193">
-        <v>52.473025</v>
-      </c>
-      <c r="E193">
-        <v>15.787250999999999</v>
-      </c>
-      <c r="F193" t="s">
-        <v>88</v>
-      </c>
       <c r="G193" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="B194" t="s">
+        <v>86</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194">
+        <v>51.409557999999997</v>
+      </c>
+      <c r="E194">
+        <v>17.283124999999998</v>
+      </c>
+      <c r="F194" t="s">
         <v>87</v>
       </c>
-      <c r="C194" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194">
-        <v>53.741031999999997</v>
-      </c>
-      <c r="E194">
-        <v>21.432289999999998</v>
-      </c>
-      <c r="F194" t="s">
-        <v>88</v>
-      </c>
       <c r="G194" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c r="B195" t="s">
+        <v>86</v>
+      </c>
+      <c r="C195" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195">
+        <v>52.473025</v>
+      </c>
+      <c r="E195">
+        <v>15.787250999999999</v>
+      </c>
+      <c r="F195" t="s">
         <v>87</v>
       </c>
-      <c r="C195" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195">
-        <v>52.215840999999998</v>
-      </c>
-      <c r="E195">
-        <v>15.799409000000001</v>
-      </c>
-      <c r="F195" t="s">
-        <v>88</v>
-      </c>
       <c r="G195" t="s">
-        <v>162</v>
-      </c>
-      <c r="H195" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>271</v>
+        <v>92</v>
       </c>
       <c r="B196" t="s">
+        <v>86</v>
+      </c>
+      <c r="C196" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196">
+        <v>53.741031999999997</v>
+      </c>
+      <c r="E196">
+        <v>21.432289999999998</v>
+      </c>
+      <c r="F196" t="s">
         <v>87</v>
       </c>
-      <c r="C196" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196">
-        <v>52.121386999999999</v>
-      </c>
-      <c r="E196">
-        <v>20.996396000000001</v>
-      </c>
-      <c r="F196" t="s">
-        <v>88</v>
-      </c>
       <c r="G196" t="s">
-        <v>255</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="B197" t="s">
+        <v>86</v>
+      </c>
+      <c r="C197" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197">
+        <v>52.215840999999998</v>
+      </c>
+      <c r="E197">
+        <v>15.799409000000001</v>
+      </c>
+      <c r="F197" t="s">
         <v>87</v>
       </c>
-      <c r="C197" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197">
-        <v>52.016666999999998</v>
-      </c>
-      <c r="E197">
-        <v>21.333333</v>
-      </c>
-      <c r="F197" t="s">
-        <v>88</v>
-      </c>
       <c r="G197" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H197" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B198" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C198" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D198">
-        <v>-12.973742319999999</v>
+        <v>52.121386999999999</v>
       </c>
       <c r="E198">
-        <v>-38.511485749999999</v>
+        <v>20.996396000000001</v>
       </c>
       <c r="F198" t="s">
-        <v>237</v>
+        <v>87</v>
       </c>
       <c r="G198" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B199" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C199" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D199">
-        <v>37.220502000000003</v>
+        <v>52.016666999999998</v>
       </c>
       <c r="E199">
-        <v>-7.8464850000000004</v>
+        <v>21.333333</v>
       </c>
       <c r="F199" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="B200" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D200">
-        <v>-17.233070000000001</v>
+        <v>-12.973742319999999</v>
       </c>
       <c r="E200">
-        <v>-51.448596000000002</v>
+        <v>-38.511485749999999</v>
       </c>
       <c r="F200" t="s">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="G200" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B201" t="s">
+        <v>95</v>
+      </c>
+      <c r="C201" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201">
+        <v>37.220502000000003</v>
+      </c>
+      <c r="E201">
+        <v>-7.8464850000000004</v>
+      </c>
+      <c r="F201" t="s">
         <v>96</v>
       </c>
-      <c r="C201" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201">
-        <v>-17.233070000000001</v>
-      </c>
-      <c r="E201">
-        <v>-51.448596000000002</v>
-      </c>
-      <c r="F201" t="s">
-        <v>99</v>
-      </c>
       <c r="G201" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B202" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D202">
         <v>-17.233070000000001</v>
@@ -6104,18 +6095,18 @@
         <v>-51.448596000000002</v>
       </c>
       <c r="F202" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G202" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B203" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C203" t="s">
         <v>9</v>
@@ -6127,1487 +6118,1493 @@
         <v>-51.448596000000002</v>
       </c>
       <c r="F203" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G203" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="B204" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D204">
-        <v>-19.8911111</v>
+        <v>-17.233070000000001</v>
       </c>
       <c r="E204">
-        <v>-40.378611100000001</v>
+        <v>-51.448596000000002</v>
       </c>
       <c r="F204" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G204" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H204" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>248</v>
+        <v>97</v>
       </c>
       <c r="B205" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C205" t="s">
         <v>9</v>
       </c>
       <c r="D205">
-        <v>-29.166667</v>
+        <v>-17.233070000000001</v>
       </c>
       <c r="E205">
-        <v>-50.083333000000003</v>
+        <v>-51.448596000000002</v>
       </c>
       <c r="F205" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="G205" t="s">
-        <v>238</v>
+        <v>161</v>
+      </c>
+      <c r="H205" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B206" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D206">
-        <v>48.474997000000002</v>
+        <v>-19.8911111</v>
       </c>
       <c r="E206">
-        <v>135.75648699999999</v>
+        <v>-40.378611100000001</v>
       </c>
       <c r="F206" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G206" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H206" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="B207" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C207" t="s">
         <v>9</v>
       </c>
       <c r="D207">
-        <v>58.948295999999999</v>
+        <v>-29.166667</v>
       </c>
       <c r="E207">
-        <v>37.608656500000002</v>
+        <v>-50.083333000000003</v>
       </c>
       <c r="F207" t="s">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="G207" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="B208" t="s">
+        <v>100</v>
+      </c>
+      <c r="C208" t="s">
+        <v>15</v>
+      </c>
+      <c r="D208">
+        <v>48.474997000000002</v>
+      </c>
+      <c r="E208">
+        <v>135.75648699999999</v>
+      </c>
+      <c r="F208" t="s">
         <v>101</v>
       </c>
-      <c r="C208" t="s">
-        <v>16</v>
-      </c>
-      <c r="D208">
-        <v>55.649703000000002</v>
-      </c>
-      <c r="E208">
-        <v>43.600026</v>
-      </c>
-      <c r="F208" t="s">
-        <v>102</v>
-      </c>
       <c r="G208" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H208" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B209" t="s">
+        <v>100</v>
+      </c>
+      <c r="C209" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209">
+        <v>58.948295999999999</v>
+      </c>
+      <c r="E209">
+        <v>37.608656500000002</v>
+      </c>
+      <c r="F209" t="s">
         <v>101</v>
       </c>
-      <c r="C209" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209">
-        <v>50.917831</v>
-      </c>
-      <c r="E209">
-        <v>45.566871999999996</v>
-      </c>
-      <c r="F209" t="s">
-        <v>102</v>
-      </c>
       <c r="G209" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B210" t="s">
+        <v>100</v>
+      </c>
+      <c r="C210" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210">
+        <v>55.649703000000002</v>
+      </c>
+      <c r="E210">
+        <v>43.600026</v>
+      </c>
+      <c r="F210" t="s">
         <v>101</v>
       </c>
-      <c r="C210" t="s">
-        <v>16</v>
-      </c>
-      <c r="D210">
-        <v>44.001882000000002</v>
-      </c>
-      <c r="E210">
-        <v>40.137678000000001</v>
-      </c>
-      <c r="F210" t="s">
-        <v>102</v>
-      </c>
       <c r="G210" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B211" t="s">
+        <v>100</v>
+      </c>
+      <c r="C211" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211">
+        <v>50.917831</v>
+      </c>
+      <c r="E211">
+        <v>45.566871999999996</v>
+      </c>
+      <c r="F211" t="s">
         <v>101</v>
       </c>
-      <c r="C211" t="s">
-        <v>16</v>
-      </c>
-      <c r="D211">
-        <v>43.420735000000001</v>
-      </c>
-      <c r="E211">
-        <v>39.920476000000001</v>
-      </c>
-      <c r="F211" t="s">
-        <v>102</v>
-      </c>
       <c r="G211" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="B212" t="s">
+        <v>100</v>
+      </c>
+      <c r="C212" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212">
+        <v>44.001882000000002</v>
+      </c>
+      <c r="E212">
+        <v>40.137678000000001</v>
+      </c>
+      <c r="F212" t="s">
         <v>101</v>
       </c>
-      <c r="C212" t="s">
-        <v>16</v>
-      </c>
-      <c r="D212">
-        <v>53.023938000000001</v>
-      </c>
-      <c r="E212">
-        <v>116.968051</v>
-      </c>
-      <c r="F212" t="s">
-        <v>102</v>
-      </c>
       <c r="G212" t="s">
-        <v>162</v>
-      </c>
-      <c r="H212" t="s">
-        <v>306</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="B213" t="s">
+        <v>100</v>
+      </c>
+      <c r="C213" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213">
+        <v>43.420735000000001</v>
+      </c>
+      <c r="E213">
+        <v>39.920476000000001</v>
+      </c>
+      <c r="F213" t="s">
         <v>101</v>
       </c>
-      <c r="C213" t="s">
-        <v>16</v>
-      </c>
-      <c r="D213">
-        <v>61.259756000000003</v>
-      </c>
-      <c r="E213">
-        <v>105.318776</v>
-      </c>
-      <c r="F213" t="s">
-        <v>102</v>
-      </c>
       <c r="G213" t="s">
-        <v>162</v>
-      </c>
-      <c r="H213" t="s">
-        <v>306</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="B214" t="s">
+        <v>100</v>
+      </c>
+      <c r="C214" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214">
+        <v>53.023938000000001</v>
+      </c>
+      <c r="E214">
+        <v>116.968051</v>
+      </c>
+      <c r="F214" t="s">
         <v>101</v>
       </c>
-      <c r="C214" t="s">
-        <v>16</v>
-      </c>
-      <c r="D214">
-        <v>49.966670000000001</v>
-      </c>
-      <c r="E214">
-        <v>37.366669999999999</v>
-      </c>
-      <c r="F214" t="s">
-        <v>102</v>
-      </c>
       <c r="G214" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H214" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="B215" t="s">
+        <v>100</v>
+      </c>
+      <c r="C215" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215">
+        <v>61.259756000000003</v>
+      </c>
+      <c r="E215">
+        <v>105.318776</v>
+      </c>
+      <c r="F215" t="s">
         <v>101</v>
       </c>
-      <c r="C215" t="s">
-        <v>16</v>
-      </c>
-      <c r="D215">
-        <v>56.5</v>
-      </c>
-      <c r="E215">
-        <v>32.916670000000003</v>
-      </c>
-      <c r="F215" t="s">
-        <v>102</v>
-      </c>
       <c r="G215" t="s">
-        <v>238</v>
+        <v>161</v>
+      </c>
+      <c r="H215" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="B216" t="s">
+        <v>100</v>
+      </c>
+      <c r="C216" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216">
+        <v>49.966670000000001</v>
+      </c>
+      <c r="E216">
+        <v>37.366669999999999</v>
+      </c>
+      <c r="F216" t="s">
         <v>101</v>
       </c>
-      <c r="C216" t="s">
-        <v>16</v>
-      </c>
-      <c r="D216">
-        <v>52.5</v>
-      </c>
-      <c r="E216">
-        <v>34</v>
-      </c>
-      <c r="F216" t="s">
-        <v>102</v>
-      </c>
       <c r="G216" t="s">
-        <v>238</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="B217" t="s">
+        <v>100</v>
+      </c>
+      <c r="C217" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217">
+        <v>56.5</v>
+      </c>
+      <c r="E217">
+        <v>32.916670000000003</v>
+      </c>
+      <c r="F217" t="s">
         <v>101</v>
       </c>
-      <c r="C217" t="s">
-        <v>9</v>
-      </c>
-      <c r="D217">
-        <v>52.2</v>
-      </c>
-      <c r="E217">
-        <v>60.35</v>
-      </c>
-      <c r="F217" t="s">
-        <v>102</v>
-      </c>
       <c r="G217" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="B218" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C218" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D218">
-        <v>90.06</v>
+        <v>52.5</v>
       </c>
       <c r="E218">
-        <v>32.729999999999997</v>
+        <v>34</v>
       </c>
       <c r="F218" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G218" t="s">
-        <v>162</v>
-      </c>
-      <c r="H218" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>213</v>
+        <v>107</v>
       </c>
       <c r="B219" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C219" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D219">
-        <v>113.27</v>
+        <v>52.2</v>
       </c>
       <c r="E219">
-        <v>23.14</v>
+        <v>60.35</v>
       </c>
       <c r="F219" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G219" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
+        <v>184</v>
+      </c>
+      <c r="B220" t="s">
         <v>109</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220">
+        <v>90.06</v>
+      </c>
+      <c r="E220">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="F220" t="s">
         <v>110</v>
       </c>
-      <c r="C220" t="s">
-        <v>9</v>
-      </c>
-      <c r="D220">
-        <v>28.07</v>
-      </c>
-      <c r="E220">
-        <v>111.08</v>
-      </c>
-      <c r="F220" t="s">
-        <v>111</v>
-      </c>
       <c r="G220" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H220" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="B221" t="s">
+        <v>109</v>
+      </c>
+      <c r="C221" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221">
+        <v>113.27</v>
+      </c>
+      <c r="E221">
+        <v>23.14</v>
+      </c>
+      <c r="F221" t="s">
         <v>110</v>
       </c>
-      <c r="C221" t="s">
-        <v>9</v>
-      </c>
-      <c r="D221">
-        <v>33.24</v>
-      </c>
-      <c r="E221">
-        <v>107.53</v>
-      </c>
-      <c r="F221" t="s">
-        <v>111</v>
-      </c>
       <c r="G221" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B222" t="s">
+        <v>109</v>
+      </c>
+      <c r="C222" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222">
+        <v>28.07</v>
+      </c>
+      <c r="E222">
+        <v>111.08</v>
+      </c>
+      <c r="F222" t="s">
         <v>110</v>
       </c>
-      <c r="C222" t="s">
-        <v>9</v>
-      </c>
-      <c r="D222">
-        <v>33.24</v>
-      </c>
-      <c r="E222">
-        <v>107.53</v>
-      </c>
-      <c r="F222" t="s">
-        <v>111</v>
-      </c>
       <c r="G222" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B223" t="s">
+        <v>109</v>
+      </c>
+      <c r="C223" t="s">
+        <v>9</v>
+      </c>
+      <c r="D223">
+        <v>33.24</v>
+      </c>
+      <c r="E223">
+        <v>107.53</v>
+      </c>
+      <c r="F223" t="s">
         <v>110</v>
       </c>
-      <c r="C223" t="s">
-        <v>31</v>
-      </c>
-      <c r="D223">
-        <v>177.12</v>
-      </c>
-      <c r="E223">
-        <v>772.12</v>
-      </c>
-      <c r="F223" t="s">
-        <v>111</v>
-      </c>
       <c r="G223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B224" t="s">
+        <v>109</v>
+      </c>
+      <c r="C224" t="s">
+        <v>9</v>
+      </c>
+      <c r="D224">
+        <v>33.24</v>
+      </c>
+      <c r="E224">
+        <v>107.53</v>
+      </c>
+      <c r="F224" t="s">
         <v>110</v>
       </c>
-      <c r="C224" t="s">
-        <v>31</v>
-      </c>
-      <c r="D224">
-        <v>177.12</v>
-      </c>
-      <c r="E224">
-        <v>772.12</v>
-      </c>
-      <c r="F224" t="s">
-        <v>111</v>
-      </c>
       <c r="G224" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H224" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B225" t="s">
+        <v>109</v>
+      </c>
+      <c r="C225" t="s">
+        <v>30</v>
+      </c>
+      <c r="D225">
+        <v>177.12</v>
+      </c>
+      <c r="E225">
+        <v>772.12</v>
+      </c>
+      <c r="F225" t="s">
         <v>110</v>
       </c>
-      <c r="C225" t="s">
-        <v>16</v>
-      </c>
-      <c r="D225" t="s">
-        <v>115</v>
-      </c>
-      <c r="E225" t="s">
-        <v>115</v>
-      </c>
-      <c r="F225" t="s">
-        <v>111</v>
-      </c>
       <c r="G225" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B226" t="s">
+        <v>109</v>
+      </c>
+      <c r="C226" t="s">
+        <v>30</v>
+      </c>
+      <c r="D226">
+        <v>177.12</v>
+      </c>
+      <c r="E226">
+        <v>772.12</v>
+      </c>
+      <c r="F226" t="s">
         <v>110</v>
       </c>
-      <c r="C226" t="s">
-        <v>16</v>
-      </c>
-      <c r="D226" t="s">
-        <v>115</v>
-      </c>
-      <c r="E226" t="s">
-        <v>115</v>
-      </c>
-      <c r="F226" t="s">
-        <v>111</v>
-      </c>
       <c r="G226" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H226" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B227" t="s">
+        <v>109</v>
+      </c>
+      <c r="C227" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" t="s">
+        <v>114</v>
+      </c>
+      <c r="E227" t="s">
+        <v>114</v>
+      </c>
+      <c r="F227" t="s">
         <v>110</v>
       </c>
-      <c r="C227" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227">
-        <v>31.22</v>
-      </c>
-      <c r="E227">
-        <v>120.1</v>
-      </c>
-      <c r="F227" t="s">
-        <v>111</v>
-      </c>
       <c r="G227" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B228" t="s">
+        <v>109</v>
+      </c>
+      <c r="C228" t="s">
+        <v>15</v>
+      </c>
+      <c r="D228" t="s">
+        <v>114</v>
+      </c>
+      <c r="E228" t="s">
+        <v>114</v>
+      </c>
+      <c r="F228" t="s">
         <v>110</v>
       </c>
-      <c r="C228" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228">
-        <v>31.09</v>
-      </c>
-      <c r="E228">
-        <v>121.03</v>
-      </c>
-      <c r="F228" t="s">
-        <v>111</v>
-      </c>
       <c r="G228" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H228" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B229" t="s">
+        <v>109</v>
+      </c>
+      <c r="C229" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229">
+        <v>31.22</v>
+      </c>
+      <c r="E229">
+        <v>120.1</v>
+      </c>
+      <c r="F229" t="s">
         <v>110</v>
       </c>
-      <c r="C229" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" t="s">
-        <v>115</v>
-      </c>
-      <c r="E229" t="s">
-        <v>115</v>
-      </c>
-      <c r="F229" t="s">
-        <v>111</v>
-      </c>
       <c r="G229" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B230" t="s">
+        <v>109</v>
+      </c>
+      <c r="C230" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230">
+        <v>31.09</v>
+      </c>
+      <c r="E230">
+        <v>121.03</v>
+      </c>
+      <c r="F230" t="s">
         <v>110</v>
       </c>
-      <c r="C230" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230">
-        <v>121.03</v>
-      </c>
-      <c r="E230">
-        <v>31.09</v>
-      </c>
-      <c r="F230" t="s">
-        <v>111</v>
-      </c>
       <c r="G230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B231" t="s">
+        <v>109</v>
+      </c>
+      <c r="C231" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" t="s">
+        <v>114</v>
+      </c>
+      <c r="E231" t="s">
+        <v>114</v>
+      </c>
+      <c r="F231" t="s">
         <v>110</v>
       </c>
-      <c r="C231" t="s">
-        <v>16</v>
-      </c>
-      <c r="D231">
-        <v>29.82</v>
-      </c>
-      <c r="E231">
-        <v>112.55</v>
-      </c>
-      <c r="F231" t="s">
-        <v>111</v>
-      </c>
       <c r="G231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="B232" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C232" t="s">
         <v>9</v>
       </c>
       <c r="D232">
-        <v>-38.416103999999997</v>
+        <v>121.03</v>
       </c>
       <c r="E232">
-        <v>-63.616666000000002</v>
+        <v>31.09</v>
       </c>
       <c r="F232" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G232" t="s">
-        <v>217</v>
-      </c>
-      <c r="H232" t="s">
-        <v>307</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>300</v>
+        <v>119</v>
       </c>
       <c r="B233" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C233" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D233">
-        <v>23.06852778</v>
+        <v>29.82</v>
       </c>
       <c r="E233">
-        <v>65.150000000000006</v>
+        <v>112.55</v>
       </c>
       <c r="F233" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G233" t="s">
-        <v>276</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
+        <v>228</v>
+      </c>
+      <c r="B234" t="s">
         <v>121</v>
       </c>
-      <c r="B234" t="s">
-        <v>122</v>
-      </c>
       <c r="C234" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D234">
-        <v>36.034638889999997</v>
+        <v>-38.416103999999997</v>
       </c>
       <c r="E234">
-        <v>68.535555560000006</v>
+        <v>-63.616666000000002</v>
       </c>
       <c r="F234" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G234" t="s">
-        <v>15</v>
+        <v>216</v>
+      </c>
+      <c r="H234" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
+        <v>299</v>
+      </c>
+      <c r="B235" t="s">
         <v>121</v>
       </c>
-      <c r="B235" t="s">
-        <v>122</v>
-      </c>
       <c r="C235" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D235">
-        <v>36.034638889999997</v>
+        <v>23.06852778</v>
       </c>
       <c r="E235">
-        <v>68.535555560000006</v>
+        <v>65.150000000000006</v>
       </c>
       <c r="F235" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G235" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="B236" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C236" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D236">
-        <v>22.520032</v>
+        <v>36.034638889999997</v>
       </c>
       <c r="E236">
-        <v>100.285293</v>
+        <v>68.535555560000006</v>
       </c>
       <c r="F236" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="G236" t="s">
-        <v>162</v>
-      </c>
-      <c r="H236" t="s">
-        <v>306</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="B237" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D237">
-        <v>22.520032</v>
+        <v>36.034638889999997</v>
       </c>
       <c r="E237">
-        <v>100.285293</v>
+        <v>68.535555560000006</v>
       </c>
       <c r="F237" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="G237" t="s">
-        <v>162</v>
-      </c>
-      <c r="H237" t="s">
-        <v>306</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="B238" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C238" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D238">
-        <v>41.442293999999997</v>
+        <v>22.520032</v>
       </c>
       <c r="E238">
-        <v>2.1016870000000001</v>
+        <v>100.285293</v>
       </c>
       <c r="F238" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="G238" t="s">
-        <v>255</v>
+        <v>161</v>
+      </c>
+      <c r="H238" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="B239" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C239" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D239">
-        <v>41.442293999999997</v>
+        <v>22.520032</v>
       </c>
       <c r="E239">
-        <v>2.1016870000000001</v>
+        <v>100.285293</v>
       </c>
       <c r="F239" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="G239" t="s">
-        <v>276</v>
+        <v>161</v>
+      </c>
+      <c r="H239" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="B240" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C240" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D240">
-        <v>9.9913109999999996</v>
+        <v>41.442293999999997</v>
       </c>
       <c r="E240">
-        <v>-83.041507999999993</v>
+        <v>2.1016870000000001</v>
       </c>
       <c r="F240" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="G240" t="s">
-        <v>162</v>
-      </c>
-      <c r="H240" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="B241" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C241" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D241">
-        <v>79.125833330000006</v>
+        <v>41.442293999999997</v>
       </c>
       <c r="E241">
-        <v>6.0269444439999997</v>
+        <v>2.1016870000000001</v>
       </c>
       <c r="F241" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="G241" t="s">
-        <v>162</v>
-      </c>
-      <c r="H241" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="B242" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C242" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D242">
-        <v>23.035833329999999</v>
+        <v>9.9913109999999996</v>
       </c>
       <c r="E242">
-        <v>-49.898888890000002</v>
+        <v>-83.041507999999993</v>
       </c>
       <c r="F242" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G242" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H242" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="B243" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C243" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D243">
-        <v>23.035833329999999</v>
+        <v>79.125833330000006</v>
       </c>
       <c r="E243">
-        <v>-49.898888890000002</v>
+        <v>6.0269444439999997</v>
       </c>
       <c r="F243" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="G243" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H243" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="B244" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C244" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D244">
-        <v>41.929183999999999</v>
+        <v>23.035833329999999</v>
       </c>
       <c r="E244">
-        <v>-1.8865989999999999</v>
+        <v>-49.898888890000002</v>
       </c>
       <c r="F244" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="G244" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="B245" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C245" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D245">
-        <v>40.883322999999997</v>
+        <v>23.035833329999999</v>
       </c>
       <c r="E245">
-        <v>-4.016661</v>
+        <v>-49.898888890000002</v>
       </c>
       <c r="F245" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="G245" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="H245" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B246" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D246">
-        <v>-30.034635000000002</v>
+        <v>41.929183999999999</v>
       </c>
       <c r="E246">
-        <v>-51.217703999999998</v>
+        <v>-1.8865989999999999</v>
       </c>
       <c r="F246" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G246" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="B247" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C247" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D247">
-        <v>37.042729000000001</v>
+        <v>40.883322999999997</v>
       </c>
       <c r="E247">
-        <v>-6.4344460000000003</v>
+        <v>-4.016661</v>
       </c>
       <c r="F247" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G247" t="s">
-        <v>15</v>
+        <v>216</v>
+      </c>
+      <c r="H247" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c r="B248" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C248" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D248">
-        <v>37.042729000000001</v>
+        <v>-30.034635000000002</v>
       </c>
       <c r="E248">
-        <v>-6.4344460000000003</v>
+        <v>-51.217703999999998</v>
       </c>
       <c r="F248" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G248" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>231</v>
+        <v>124</v>
       </c>
       <c r="B249" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C249" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D249">
-        <v>41.385064</v>
+        <v>37.042729000000001</v>
       </c>
       <c r="E249">
-        <v>2.1734019999999998</v>
+        <v>-6.4344460000000003</v>
       </c>
       <c r="F249" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G249" t="s">
-        <v>217</v>
-      </c>
-      <c r="H249" t="s">
-        <v>307</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>301</v>
+        <v>124</v>
       </c>
       <c r="B250" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C250" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D250">
-        <v>41.370970999999997</v>
+        <v>37.042729000000001</v>
       </c>
       <c r="E250">
-        <v>-7.5022880000000001</v>
+        <v>-6.4344460000000003</v>
       </c>
       <c r="F250" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G250" t="s">
-        <v>276</v>
+        <v>161</v>
+      </c>
+      <c r="H250" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="B251" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C251" t="s">
         <v>9</v>
       </c>
       <c r="D251">
-        <v>37.218052999999998</v>
+        <v>41.385064</v>
       </c>
       <c r="E251">
-        <v>-6.9571339999999999</v>
+        <v>2.1734019999999998</v>
       </c>
       <c r="F251" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G251" t="s">
-        <v>15</v>
+        <v>216</v>
+      </c>
+      <c r="H251" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="B252" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C252" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D252">
-        <v>-30.25</v>
+        <v>41.370970999999997</v>
       </c>
       <c r="E252">
-        <v>-71.083332999999996</v>
+        <v>-7.5022880000000001</v>
       </c>
       <c r="F252" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="G252" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="B253" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C253" t="s">
         <v>9</v>
       </c>
       <c r="D253">
-        <v>-39.289255500000003</v>
+        <v>37.218052999999998</v>
       </c>
       <c r="E253">
-        <v>-72.841588999999999</v>
+        <v>-6.9571339999999999</v>
       </c>
       <c r="F253" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="G253" t="s">
-        <v>162</v>
-      </c>
-      <c r="H253" t="s">
-        <v>305</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="B254" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C254" t="s">
         <v>9</v>
       </c>
       <c r="D254">
-        <v>-33.642069999999997</v>
+        <v>-30.25</v>
       </c>
       <c r="E254">
-        <v>-78.846672999999996</v>
+        <v>-71.083332999999996</v>
       </c>
       <c r="F254" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G254" t="s">
-        <v>217</v>
-      </c>
-      <c r="H254" t="s">
-        <v>307</v>
+        <v>196</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B255" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C255" t="s">
         <v>9</v>
       </c>
       <c r="D255">
-        <v>-33.792085999999998</v>
+        <v>-39.289255500000003</v>
       </c>
       <c r="E255">
-        <v>-71.688152000000002</v>
+        <v>-72.841588999999999</v>
       </c>
       <c r="F255" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G255" t="s">
-        <v>197</v>
+        <v>161</v>
+      </c>
+      <c r="H255" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="B256" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C256" t="s">
         <v>9</v>
       </c>
       <c r="D256">
-        <v>-36.707459</v>
+        <v>-33.642069999999997</v>
       </c>
       <c r="E256">
-        <v>-72.527497999999994</v>
+        <v>-78.846672999999996</v>
       </c>
       <c r="F256" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G256" t="s">
-        <v>238</v>
+        <v>216</v>
+      </c>
+      <c r="H256" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="B257" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C257" t="s">
         <v>9</v>
       </c>
       <c r="D257">
-        <v>-33.646388999999999</v>
+        <v>-33.792085999999998</v>
       </c>
       <c r="E257">
-        <v>-78.799443999999994</v>
+        <v>-71.688152000000002</v>
       </c>
       <c r="F257" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G257" t="s">
-        <v>217</v>
-      </c>
-      <c r="H257" t="s">
-        <v>307</v>
+        <v>196</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="B258" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C258" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D258">
-        <v>18.415448000000001</v>
+        <v>-36.707459</v>
       </c>
       <c r="E258">
-        <v>-95.112401000000006</v>
+        <v>-72.527497999999994</v>
       </c>
       <c r="F258" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="G258" t="s">
-        <v>162</v>
-      </c>
-      <c r="H258" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="B259" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C259" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D259">
-        <v>19.516110999999999</v>
+        <v>-33.646388999999999</v>
       </c>
       <c r="E259">
-        <v>-97.323888999999994</v>
+        <v>-78.799443999999994</v>
       </c>
       <c r="F259" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="G259" t="s">
-        <v>15</v>
+        <v>216</v>
+      </c>
+      <c r="H259" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="B260" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C260" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D260">
-        <v>-31.569344999999998</v>
+        <v>18.415448000000001</v>
       </c>
       <c r="E260">
-        <v>-64.834766000000002</v>
+        <v>-95.112401000000006</v>
       </c>
       <c r="F260" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="G260" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H260" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>274</v>
+        <v>126</v>
       </c>
       <c r="B261" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C261" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D261">
-        <v>16.737036</v>
+        <v>19.516110999999999</v>
       </c>
       <c r="E261">
-        <v>-92.637619000000001</v>
+        <v>-97.323888999999994</v>
       </c>
       <c r="F261" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G261" t="s">
-        <v>255</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B262" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C262" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D262">
-        <v>-28.050405999999999</v>
+        <v>-31.569344999999998</v>
       </c>
       <c r="E262">
-        <v>-64.250427000000002</v>
+        <v>-64.834766000000002</v>
       </c>
       <c r="F262" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G262" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="B263" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C263" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D263">
-        <v>-54.850014999999999</v>
+        <v>16.737036</v>
       </c>
       <c r="E263">
-        <v>-68.533339999999995</v>
+        <v>-92.637619000000001</v>
       </c>
       <c r="F263" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="G263" t="s">
-        <v>217</v>
-      </c>
-      <c r="H263" t="s">
-        <v>307</v>
+        <v>254</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="B264" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C264" t="s">
         <v>9</v>
       </c>
       <c r="D264">
-        <v>-54.850014999999999</v>
+        <v>-28.050405999999999</v>
       </c>
       <c r="E264">
-        <v>-68.533339999999995</v>
+        <v>-64.250427000000002</v>
       </c>
       <c r="F264" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G264" t="s">
-        <v>217</v>
-      </c>
-      <c r="H264" t="s">
-        <v>307</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B265" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C265" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D265">
         <v>-54.850014999999999</v>
@@ -7616,76 +7613,76 @@
         <v>-68.533339999999995</v>
       </c>
       <c r="F265" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G265" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H265" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B266" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C266" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D266">
-        <v>-38.416103999999997</v>
+        <v>-54.850014999999999</v>
       </c>
       <c r="E266">
-        <v>-63.616666000000002</v>
+        <v>-68.533339999999995</v>
       </c>
       <c r="F266" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G266" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H266" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B267" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C267" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D267">
-        <v>-38.416103999999997</v>
+        <v>-54.850014999999999</v>
       </c>
       <c r="E267">
-        <v>-63.616666000000002</v>
+        <v>-68.533339999999995</v>
       </c>
       <c r="F267" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G267" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H267" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B268" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C268" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D268">
         <v>-38.416103999999997</v>
@@ -7694,301 +7691,352 @@
         <v>-63.616666000000002</v>
       </c>
       <c r="F268" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G268" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H268" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="B269" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C269" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D269">
-        <v>24.477429000000001</v>
+        <v>-38.416103999999997</v>
       </c>
       <c r="E269">
-        <v>118.31032500000001</v>
+        <v>-63.616666000000002</v>
       </c>
       <c r="F269" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="G269" t="s">
-        <v>206</v>
+        <v>216</v>
+      </c>
+      <c r="H269" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="B270" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C270" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D270">
-        <v>24.477429000000001</v>
+        <v>-38.416103999999997</v>
       </c>
       <c r="E270">
-        <v>118.31032500000001</v>
+        <v>-63.616666000000002</v>
       </c>
       <c r="F270" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="G270" t="s">
-        <v>238</v>
+        <v>216</v>
+      </c>
+      <c r="H270" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
+        <v>214</v>
+      </c>
+      <c r="B271" t="s">
         <v>131</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
+        <v>15</v>
+      </c>
+      <c r="D271">
+        <v>24.477429000000001</v>
+      </c>
+      <c r="E271">
+        <v>118.31032500000001</v>
+      </c>
+      <c r="F271" t="s">
         <v>132</v>
       </c>
-      <c r="C271" t="s">
-        <v>16</v>
-      </c>
-      <c r="D271">
-        <v>24.195139999999999</v>
-      </c>
-      <c r="E271">
-        <v>121.48799200000001</v>
-      </c>
-      <c r="F271" t="s">
-        <v>133</v>
-      </c>
       <c r="G271" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
+        <v>214</v>
+      </c>
+      <c r="B272" t="s">
         <v>131</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
+        <v>15</v>
+      </c>
+      <c r="D272">
+        <v>24.477429000000001</v>
+      </c>
+      <c r="E272">
+        <v>118.31032500000001</v>
+      </c>
+      <c r="F272" t="s">
         <v>132</v>
       </c>
-      <c r="C272" t="s">
-        <v>9</v>
-      </c>
-      <c r="D272">
-        <v>24.195139999999999</v>
-      </c>
-      <c r="E272">
-        <v>121.48799200000001</v>
-      </c>
-      <c r="F272" t="s">
-        <v>133</v>
-      </c>
       <c r="G272" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B273" t="s">
+        <v>131</v>
+      </c>
+      <c r="C273" t="s">
+        <v>15</v>
+      </c>
+      <c r="D273">
+        <v>24.195139999999999</v>
+      </c>
+      <c r="E273">
+        <v>121.48799200000001</v>
+      </c>
+      <c r="F273" t="s">
         <v>132</v>
       </c>
-      <c r="C273" t="s">
-        <v>9</v>
-      </c>
-      <c r="D273">
-        <v>23.614747999999999</v>
-      </c>
-      <c r="E273">
-        <v>121.41825900000001</v>
-      </c>
-      <c r="F273" t="s">
-        <v>133</v>
-      </c>
       <c r="G273" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>216</v>
+        <v>130</v>
       </c>
       <c r="B274" t="s">
+        <v>131</v>
+      </c>
+      <c r="C274" t="s">
+        <v>9</v>
+      </c>
+      <c r="D274">
+        <v>24.195139999999999</v>
+      </c>
+      <c r="E274">
+        <v>121.48799200000001</v>
+      </c>
+      <c r="F274" t="s">
         <v>132</v>
       </c>
-      <c r="C274" t="s">
-        <v>9</v>
-      </c>
-      <c r="D274">
-        <v>25.015481999999999</v>
-      </c>
-      <c r="E274">
-        <v>121.53995500000001</v>
-      </c>
-      <c r="F274" t="s">
-        <v>133</v>
-      </c>
       <c r="G274" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="B275" t="s">
+        <v>131</v>
+      </c>
+      <c r="C275" t="s">
+        <v>9</v>
+      </c>
+      <c r="D275">
+        <v>23.614747999999999</v>
+      </c>
+      <c r="E275">
+        <v>121.41825900000001</v>
+      </c>
+      <c r="F275" t="s">
         <v>132</v>
       </c>
-      <c r="C275" t="s">
-        <v>9</v>
-      </c>
-      <c r="D275">
-        <v>24.587271999999999</v>
-      </c>
-      <c r="E275">
-        <v>121.43477900000001</v>
-      </c>
-      <c r="F275" t="s">
-        <v>133</v>
-      </c>
       <c r="G275" t="s">
-        <v>162</v>
-      </c>
-      <c r="H275" t="s">
-        <v>305</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="B276" t="s">
+        <v>131</v>
+      </c>
+      <c r="C276" t="s">
+        <v>9</v>
+      </c>
+      <c r="D276">
+        <v>25.015481999999999</v>
+      </c>
+      <c r="E276">
+        <v>121.53995500000001</v>
+      </c>
+      <c r="F276" t="s">
         <v>132</v>
       </c>
-      <c r="C276" t="s">
-        <v>16</v>
-      </c>
-      <c r="D276">
-        <v>21.948293</v>
-      </c>
-      <c r="E276">
-        <v>120.78008800000001</v>
-      </c>
-      <c r="F276" t="s">
-        <v>133</v>
-      </c>
       <c r="G276" t="s">
-        <v>162</v>
-      </c>
-      <c r="H276" t="s">
-        <v>306</v>
+        <v>205</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="B277" t="s">
+        <v>131</v>
+      </c>
+      <c r="C277" t="s">
+        <v>9</v>
+      </c>
+      <c r="D277">
+        <v>24.587271999999999</v>
+      </c>
+      <c r="E277">
+        <v>121.43477900000001</v>
+      </c>
+      <c r="F277" t="s">
         <v>132</v>
       </c>
-      <c r="C277" t="s">
-        <v>9</v>
-      </c>
-      <c r="D277">
-        <v>24.195139999999999</v>
-      </c>
-      <c r="E277">
-        <v>121.48799200000001</v>
-      </c>
-      <c r="F277" t="s">
-        <v>133</v>
-      </c>
       <c r="G277" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H277" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="B278" t="s">
+        <v>131</v>
+      </c>
+      <c r="C278" t="s">
+        <v>15</v>
+      </c>
+      <c r="D278">
+        <v>21.948293</v>
+      </c>
+      <c r="E278">
+        <v>120.78008800000001</v>
+      </c>
+      <c r="F278" t="s">
         <v>132</v>
       </c>
-      <c r="C278" t="s">
-        <v>9</v>
-      </c>
-      <c r="D278">
-        <v>23.009802000000001</v>
-      </c>
-      <c r="E278">
-        <v>120.141436</v>
-      </c>
-      <c r="F278" t="s">
-        <v>133</v>
-      </c>
       <c r="G278" t="s">
-        <v>15</v>
+        <v>161</v>
+      </c>
+      <c r="H278" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>275</v>
+        <v>134</v>
       </c>
       <c r="B279" t="s">
+        <v>131</v>
+      </c>
+      <c r="C279" t="s">
+        <v>9</v>
+      </c>
+      <c r="D279">
+        <v>24.195139999999999</v>
+      </c>
+      <c r="E279">
+        <v>121.48799200000001</v>
+      </c>
+      <c r="F279" t="s">
         <v>132</v>
       </c>
-      <c r="C279" t="s">
-        <v>16</v>
-      </c>
-      <c r="D279">
-        <v>21.948293</v>
-      </c>
-      <c r="E279">
-        <v>120.78008800000001</v>
-      </c>
-      <c r="F279" t="s">
-        <v>133</v>
-      </c>
       <c r="G279" t="s">
-        <v>255</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
+        <v>135</v>
+      </c>
+      <c r="B280" t="s">
+        <v>131</v>
+      </c>
+      <c r="C280" t="s">
+        <v>9</v>
+      </c>
+      <c r="D280">
+        <v>23.009802000000001</v>
+      </c>
+      <c r="E280">
+        <v>120.141436</v>
+      </c>
+      <c r="F280" t="s">
+        <v>132</v>
+      </c>
+      <c r="G280" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>274</v>
+      </c>
+      <c r="B281" t="s">
+        <v>131</v>
+      </c>
+      <c r="C281" t="s">
+        <v>15</v>
+      </c>
+      <c r="D281">
+        <v>21.948293</v>
+      </c>
+      <c r="E281">
+        <v>120.78008800000001</v>
+      </c>
+      <c r="F281" t="s">
+        <v>132</v>
+      </c>
+      <c r="G281" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>136</v>
+      </c>
+      <c r="B282" t="s">
         <v>137</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C282" t="s">
+        <v>30</v>
+      </c>
+      <c r="D282">
+        <v>48.778049000000003</v>
+      </c>
+      <c r="E282">
+        <v>35.429335000000002</v>
+      </c>
+      <c r="F282" t="s">
         <v>138</v>
       </c>
-      <c r="C280" t="s">
-        <v>31</v>
-      </c>
-      <c r="D280">
-        <v>48.778049000000003</v>
-      </c>
-      <c r="E280">
-        <v>35.429335000000002</v>
-      </c>
-      <c r="F280" t="s">
-        <v>139</v>
-      </c>
-      <c r="G280" t="s">
-        <v>15</v>
+      <c r="G282" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H280" xr:uid="{72C7AA4A-A3C9-4988-828A-E4BE3466DD14}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G280">
-    <sortCondition ref="A2:A280"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G282">
+    <sortCondition ref="A2:A282"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
